--- a/src/attributions/attributions_saliency_traj_199.xlsx
+++ b/src/attributions/attributions_saliency_traj_199.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG15"/>
+  <dimension ref="A1:GG16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,571 +1573,571 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.61536979675293</v>
+        <v>0.0157480463385582</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1925660371780396</v>
+        <v>0.6667063236236572</v>
       </c>
       <c r="C3" t="n">
-        <v>1.366218566894531</v>
+        <v>0.04024368897080421</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5045406818389893</v>
+        <v>0.1303372979164124</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5344542264938354</v>
+        <v>0.1456082314252853</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2600300312042236</v>
+        <v>0.416893869638443</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07472527772188187</v>
+        <v>0.06967772543430328</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3722864091396332</v>
+        <v>0.09963512420654297</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2029184401035309</v>
+        <v>0.03964101523160934</v>
       </c>
       <c r="J3" t="n">
-        <v>1.496077299118042</v>
+        <v>0.1229805126786232</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06991817057132721</v>
+        <v>0.5056618452072144</v>
       </c>
       <c r="L3" t="n">
-        <v>1.394113659858704</v>
+        <v>0.02611159905791283</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4376273155212402</v>
+        <v>0.2886894941329956</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3709055781364441</v>
+        <v>0.1205629259347916</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04530149325728416</v>
+        <v>0.3463774621486664</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3141964673995972</v>
+        <v>0.09339256584644318</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.260875016450882</v>
+        <v>0.02544900216162205</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2811518311500549</v>
+        <v>0.07225716114044189</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06808704882860184</v>
+        <v>0.02628497779369354</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3659883141517639</v>
+        <v>0.07854633778333664</v>
       </c>
       <c r="U3" t="n">
-        <v>0.09194337576627731</v>
+        <v>0.02792223542928696</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0725870355963707</v>
+        <v>0.004213258158415556</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3627334833145142</v>
+        <v>0.01570075005292892</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2443584352731705</v>
+        <v>0.01966502331197262</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1033583953976631</v>
+        <v>0.001875874120742083</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2635829746723175</v>
+        <v>0.004182552918791771</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.101362943649292</v>
+        <v>0.02226461097598076</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1022687703371048</v>
+        <v>0.0264466367661953</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.04630598425865173</v>
+        <v>0.1176215335726738</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3688596487045288</v>
+        <v>0.003989293705672026</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1070273518562317</v>
+        <v>0.01455951016396284</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.4303788542747498</v>
+        <v>0.06030353158712387</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.3197640478610992</v>
+        <v>0.02764599584043026</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.173011377453804</v>
+        <v>0.0504441112279892</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.2617814838886261</v>
+        <v>0.002262827707454562</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1845540702342987</v>
+        <v>0.00638172309845686</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2880865335464478</v>
+        <v>0.01429380103945732</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.3451199233531952</v>
+        <v>0.05643200874328613</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1205330342054367</v>
+        <v>0.01125840283930302</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1211998388171196</v>
+        <v>0.01412498205900192</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.07864682376384735</v>
+        <v>0.01290510781109333</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.1440697312355042</v>
+        <v>0.08420258760452271</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.00520628783851862</v>
+        <v>0.007890191860496998</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.08619048446416855</v>
+        <v>0.001635495573282242</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.007872915826737881</v>
+        <v>0.03976228833198547</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8727440237998962</v>
+        <v>0.07657036930322647</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.3023898601531982</v>
+        <v>0.4311286509037018</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.7193599939346313</v>
+        <v>0.03998864069581032</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1396784782409668</v>
+        <v>0.01046800147742033</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2727568447589874</v>
+        <v>0.0657496303319931</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.17548006772995</v>
+        <v>0.2879281044006348</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.2622681856155396</v>
+        <v>0.01357055455446243</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.1752288490533829</v>
+        <v>0.02599536068737507</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.1361430585384369</v>
+        <v>0.07798042148351669</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.3456533849239349</v>
+        <v>0.02390413917601109</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.1643206179141998</v>
+        <v>0.1081226468086243</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.4527246356010437</v>
+        <v>0.1138389185070992</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.1752209663391113</v>
+        <v>0.07379226386547089</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.2174920290708542</v>
+        <v>0.06770224869251251</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.2031843960285187</v>
+        <v>0.1286274641752243</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.1020625457167625</v>
+        <v>0.07642257213592529</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.259389340877533</v>
+        <v>0.01300476491451263</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.04037961736321449</v>
+        <v>0.01510922238230705</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.2709891200065613</v>
+        <v>0.03239190578460693</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0406048446893692</v>
+        <v>0.02081646770238876</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.3601536750793457</v>
+        <v>0.007565166801214218</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.03168077766895294</v>
+        <v>0.08441774547100067</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.2902837693691254</v>
+        <v>0.04101346805691719</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.1435902714729309</v>
+        <v>0.02550994604825974</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.1343719959259033</v>
+        <v>5.791150033473969e-05</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.1583197712898254</v>
+        <v>0.06012497842311859</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.03230529278516769</v>
+        <v>0.007778366096317768</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.6389296054840088</v>
+        <v>0.04398077353835106</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.08963503688573837</v>
+        <v>0.196619987487793</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.2072340548038483</v>
+        <v>0.06191930919885635</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.3304822742938995</v>
+        <v>0.008109506219625473</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.3144600093364716</v>
+        <v>0.10099808126688</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.3168905675411224</v>
+        <v>0.09673118591308594</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.072736456990242</v>
+        <v>0.02326332591474056</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.1801141798496246</v>
+        <v>0.03233522921800613</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.001500500366091728</v>
+        <v>0.01277792174369097</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.3411284983158112</v>
+        <v>0.002670240122824907</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.243742823600769</v>
+        <v>0.1253023147583008</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.2338235080242157</v>
+        <v>0.03104910627007484</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.139887660741806</v>
+        <v>0.02689017727971077</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.07705170661211014</v>
+        <v>2.810265868902206e-05</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.0365862250328064</v>
+        <v>0.05715669319033623</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.006292205303907394</v>
+        <v>0.003186680376529694</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.109534002840519</v>
+        <v>0.005017696879804134</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.006773840636014938</v>
+        <v>0.002854349091649055</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.200249657034874</v>
+        <v>0.09649299085140228</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.1938178539276123</v>
+        <v>0.01466972753405571</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.02404730208218098</v>
+        <v>0.005415226332843304</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.1170566380023956</v>
+        <v>0.002271723002195358</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.4116364121437073</v>
+        <v>0.02483458258211613</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.02008092775940895</v>
+        <v>0.01591239124536514</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.2455628663301468</v>
+        <v>0.03272435814142227</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.1668290048837662</v>
+        <v>0.07201288640499115</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.2530037462711334</v>
+        <v>0.007346848957240582</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.3026910126209259</v>
+        <v>0.0115770036354661</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.1882239878177643</v>
+        <v>0.1006831675767899</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.263447493314743</v>
+        <v>0.04273771494626999</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.08262397348880768</v>
+        <v>0.05548462644219398</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2470042407512665</v>
+        <v>0.007084829267114401</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.01293625682592392</v>
+        <v>0.06445415318012238</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.03713634237647057</v>
+        <v>0.01437442190945148</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.07697750627994537</v>
+        <v>0.0001024845987558365</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.02863598242402077</v>
+        <v>0.004046544898301363</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.2744291126728058</v>
+        <v>0.005663606338202953</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.6690160632133484</v>
+        <v>0.04091238602995872</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.1528164595365524</v>
+        <v>0.05130827054381371</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.1200381591916084</v>
+        <v>0.02395967394113541</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.3004528880119324</v>
+        <v>0.04069669544696808</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.119746021926403</v>
+        <v>0.08389828354120255</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.07285939157009125</v>
+        <v>0.01848017796874046</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.1433566063642502</v>
+        <v>0.172842264175415</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2053897380828857</v>
+        <v>0.04299326986074448</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.1982379704713821</v>
+        <v>0.001601564697921276</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.2431778758764267</v>
+        <v>0.01202974747866392</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.1069871336221695</v>
+        <v>0.06028931960463524</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.03653337061405182</v>
+        <v>0.01511712558567524</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.1470451802015305</v>
+        <v>0.01210556738078594</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.3674314320087433</v>
+        <v>0.04940371960401535</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.1339723169803619</v>
+        <v>0.0458470992743969</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.08990056812763214</v>
+        <v>0.005469087511301041</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.1359714418649673</v>
+        <v>0.0316169410943985</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.09879351407289505</v>
+        <v>0.01842004433274269</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0915037989616394</v>
+        <v>0.07701465487480164</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.2094268947839737</v>
+        <v>0.02666011638939381</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.007351890206336975</v>
+        <v>0.007987439632415771</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.2577577531337738</v>
+        <v>0.01699189469218254</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.2183252424001694</v>
+        <v>0.0221122894436121</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.04866695404052734</v>
+        <v>0.01068514958024025</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.2088692486286163</v>
+        <v>0.05653021484613419</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0799117237329483</v>
+        <v>0.01103366632014513</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.3748496174812317</v>
+        <v>0.01480626128613949</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.2128494679927826</v>
+        <v>0.1096723973751068</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.2630617618560791</v>
+        <v>0.0159771665930748</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.0809173583984375</v>
+        <v>0.006044846028089523</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.005266288295388222</v>
+        <v>0.02792192250490189</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.2947423160076141</v>
+        <v>0.08415272831916809</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.119244247674942</v>
+        <v>0.02009064704179764</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.1529095768928528</v>
+        <v>0.06847623735666275</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.1186586916446686</v>
+        <v>0.02043194882571697</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.06527794897556305</v>
+        <v>0.03032615035772324</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.4180391728878021</v>
+        <v>0.09490372240543365</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.1914299875497818</v>
+        <v>0.04696576297283173</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.2626813650131226</v>
+        <v>0.02450723201036453</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.03100090473890305</v>
+        <v>0.04235163331031799</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.3303765058517456</v>
+        <v>0.09804776310920715</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.1706692576408386</v>
+        <v>0.04039384424686432</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.05753757059574127</v>
+        <v>0.03838498145341873</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.181469514966011</v>
+        <v>0.05438626557588577</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.3458815813064575</v>
+        <v>0.01748479716479778</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.1435952335596085</v>
+        <v>0.1116679832339287</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.2539400458335876</v>
+        <v>0.01433710940182209</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.07742132246494293</v>
+        <v>0.02693644911050797</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.1077964529395103</v>
+        <v>0.005028930492699146</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.01955044642090797</v>
+        <v>0.04690319299697876</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.03907675668597221</v>
+        <v>0.00228935107588768</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.1105104759335518</v>
+        <v>0.01569752767682076</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.04086942225694656</v>
+        <v>0.0007054479792714119</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.3655866980552673</v>
+        <v>0.03643407300114632</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.2058118879795074</v>
+        <v>0.01556164771318436</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.06093621999025345</v>
+        <v>0.03974631801247597</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.4869038760662079</v>
+        <v>0.06453872472047806</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.3374283611774445</v>
+        <v>0.02407311648130417</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.1907253712415695</v>
+        <v>0.04032783210277557</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.1431310176849365</v>
+        <v>0.0317828431725502</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.2622665762901306</v>
+        <v>0.03701101243495941</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.1246537566184998</v>
+        <v>0.06254315376281738</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.3880362808704376</v>
+        <v>0.03766734898090363</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.5909804105758667</v>
+        <v>0.2275557070970535</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.1593699753284454</v>
+        <v>0.0002883551642298698</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.6113033890724182</v>
+        <v>0.1092726588249207</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.3249478042125702</v>
+        <v>0.001757606863975525</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.1459696590900421</v>
+        <v>0.04307796433568001</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.1115224361419678</v>
+        <v>0.07104228436946869</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.04248002171516418</v>
+        <v>0.0419757291674614</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.2146871089935303</v>
+        <v>0.001957220956683159</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003814883530139923</v>
+        <v>0.08616475760936737</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.1836021542549133</v>
+        <v>0.05562904104590416</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.01907524466514587</v>
+        <v>0.01731475442647934</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.1633280664682388</v>
+        <v>0.01879521273076534</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.2873555421829224</v>
+        <v>0.2487002909183502</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.3521880209445953</v>
+        <v>0.1048422604799271</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.05815106630325317</v>
+        <v>0.04712027311325073</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.1668379455804825</v>
+        <v>0.002022663131356239</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.02837446704506874</v>
+        <v>0.0160147026181221</v>
       </c>
     </row>
     <row r="4">
@@ -2711,1140 +2711,1140 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.04325350746512413</v>
+        <v>0.001268246327526867</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004246809054166079</v>
+        <v>0.01888186857104301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03155384957790375</v>
+        <v>0.001294171437621117</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01128250267356634</v>
+        <v>0.005742582492530346</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006147566251456738</v>
+        <v>0.006297532934695482</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001322163734585047</v>
+        <v>0.009040824137628078</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007435522507876158</v>
+        <v>0.000484441639855504</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01259801257401705</v>
+        <v>0.003715269034728408</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006016660947352648</v>
+        <v>0.0008802959928289056</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03869552537798882</v>
+        <v>0.001460740109905601</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003761178115382791</v>
+        <v>0.01896261982619762</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03272637724876404</v>
+        <v>0.00142154935747385</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008593691512942314</v>
+        <v>0.009296822361648083</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02297969162464142</v>
+        <v>0.008387723006308079</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00294528529047966</v>
+        <v>0.01129700057208538</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01427771802991629</v>
+        <v>0.004641844891011715</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.009734004735946655</v>
+        <v>0.003946087323129177</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01204695086926222</v>
+        <v>0.001698749256320298</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002134155016392469</v>
+        <v>0.0008978834957815707</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01109244395047426</v>
+        <v>0.003320991061627865</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001661802874878049</v>
+        <v>0.000853630481287837</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001454116660170257</v>
+        <v>0.001723183784633875</v>
       </c>
       <c r="W5" t="n">
-        <v>0.007062911055982113</v>
+        <v>0.001350324018858373</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001380636356770992</v>
+        <v>0.0001234881638083607</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001151580712758005</v>
+        <v>0.001677765743806958</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.009915308095514774</v>
+        <v>0.001090013654902577</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.002248128643259406</v>
+        <v>0.001483457745052874</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.001925946678966284</v>
+        <v>0.002609720220789313</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0005145196337252855</v>
+        <v>0.002150921616703272</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.002929180860519409</v>
+        <v>0.00523555651307106</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.001156805199570954</v>
+        <v>0.003290369175374508</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0008854609914124012</v>
+        <v>0.00442283321171999</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.007082763127982616</v>
+        <v>0.0005043677520006895</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.006430617533624172</v>
+        <v>0.003593133296817541</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.007952828891575336</v>
+        <v>6.888309144414961e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.003456511767581105</v>
+        <v>0.002300871768966317</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.006677068769931793</v>
+        <v>0.0007483105873689055</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.00706010265275836</v>
+        <v>0.004981978330761194</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.002750811399891973</v>
+        <v>0.001764043932780623</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.005818434059619904</v>
+        <v>0.0009070888627320528</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.004783626645803452</v>
+        <v>0.004001082852482796</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.00628114677965641</v>
+        <v>0.001431471086107194</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.001019637798890471</v>
+        <v>0.0002683103375602514</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.001733808196149766</v>
+        <v>0.001251331064850092</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.841196277993731e-05</v>
+        <v>0.001269639935344458</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.01972184889018536</v>
+        <v>0.002781149465590715</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.005479379557073116</v>
+        <v>0.01238923333585262</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.01680179871618748</v>
+        <v>0.003074477892369032</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0002391774905845523</v>
+        <v>0.001560705248266459</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.001232778886333108</v>
+        <v>0.002708123065531254</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.00819536205381155</v>
+        <v>0.001243328093551099</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.004162466619163752</v>
+        <v>0.004344444256275892</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0064298240467906</v>
+        <v>0.00227659847587347</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.007488450035452843</v>
+        <v>0.001493212766945362</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.01320992596447468</v>
+        <v>9.393531217938289e-05</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.007341110613197088</v>
+        <v>0.005773032549768686</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.01068956591188908</v>
+        <v>0.001413637539371848</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.0015913121169433</v>
+        <v>9.953722474165261e-05</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.004407139495015144</v>
+        <v>0.007530068978667259</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.005352178122848272</v>
+        <v>0.005063708405941725</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.002508391393348575</v>
+        <v>0.002661599544808269</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.007109636440873146</v>
+        <v>0.0005975111271254718</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.003971351776272058</v>
+        <v>0.0001013705623336136</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.005872755777090788</v>
+        <v>0.002148658270016313</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.004702780395746231</v>
+        <v>0.00318062724545598</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.004787219688296318</v>
+        <v>0.0001588681479915977</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.004644251894205809</v>
+        <v>0.001661246875301003</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01322380360215902</v>
+        <v>0.00129793374799192</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0009005828760564327</v>
+        <v>0.0003033660177607089</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.002939688041806221</v>
+        <v>0.0008028930751606822</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.004268813878297806</v>
+        <v>0.0001504207029938698</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.003694705432280898</v>
+        <v>3.93001246266067e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.01494050677865744</v>
+        <v>0.001838542870245874</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.001806863816455007</v>
+        <v>0.007122078910470009</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.006834501400589943</v>
+        <v>0.0001539456425234675</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.008691257797181606</v>
+        <v>0.001508822897449136</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0008283330826088786</v>
+        <v>0.0001486582186771557</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.004981689620763063</v>
+        <v>0.0003539498138707131</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0009430775535292923</v>
+        <v>0.002883152570575476</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.008172561414539814</v>
+        <v>0.000366221385775134</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.000577444676309824</v>
+        <v>0.0009622338693588972</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.008477002382278442</v>
+        <v>0.0007116955821402371</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.004971467424184084</v>
+        <v>0.003269551321864128</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.006509343162178993</v>
+        <v>0.0003650671860668808</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.003377870423719287</v>
+        <v>0.00139799783937633</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.001655059633776546</v>
+        <v>0.0002215966815128922</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0008947289898060262</v>
+        <v>0.001235729781910777</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.001149706193245947</v>
+        <v>0.002190554514527321</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.004008534830063581</v>
+        <v>0.0002748366969171911</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0007184580899775028</v>
+        <v>0.0001906361867440864</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.00310816615819931</v>
+        <v>0.002266434021294117</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.008297130465507507</v>
+        <v>0.004178272094577551</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.002100599464029074</v>
+        <v>0.001286178943701088</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0007052789442241192</v>
+        <v>0.0006786415469832718</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.009267599321901798</v>
+        <v>0.000792738632299006</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.0005176424747332931</v>
+        <v>0.002026413567364216</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.007975642569363117</v>
+        <v>0.004959345329552889</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.002241116715595126</v>
+        <v>0.008668928407132626</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.007112470921128988</v>
+        <v>0.002668386325240135</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.008193623274564743</v>
+        <v>0.0007149730226956308</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.002968839835375547</v>
+        <v>0.002937151584774256</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.006445898208767176</v>
+        <v>4.076052573509514e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.002518030116334558</v>
+        <v>0.001529383240267634</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.003776301862671971</v>
+        <v>0.0001190749535453506</v>
       </c>
       <c r="DA5" t="n">
-        <v>5.32114936504513e-05</v>
+        <v>0.001879656570963562</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0008758206968195736</v>
+        <v>0.001351061044260859</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.003257713280618191</v>
+        <v>0.0002010755124501884</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0002971013309434056</v>
+        <v>0.0004575683269649744</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0008796565234661102</v>
+        <v>0.000651999784167856</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.01359513960778713</v>
+        <v>0.002228662837296724</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.001544196158647537</v>
+        <v>0.004555230028927326</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.001827781787142158</v>
+        <v>0.0009377287933602929</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.001376100233756006</v>
+        <v>0.0001356785651296377</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0001668753102421761</v>
+        <v>0.004842487163841724</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.005593014415353537</v>
+        <v>0.003044816665351391</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.004810931626707315</v>
+        <v>0.0002590932999737561</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.005909002386033535</v>
+        <v>0.00105348089709878</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0005177115672267973</v>
+        <v>0.0001032728468999267</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.01099790539592505</v>
+        <v>0.002091178437694907</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0003425253671593964</v>
+        <v>0.001283441437408328</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.001619377639144659</v>
+        <v>0.00427046325057745</v>
       </c>
       <c r="DR5" t="n">
-        <v>8.040136890485883e-05</v>
+        <v>0.000485668278997764</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.004873083904385567</v>
+        <v>0.003663095412775874</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.003799877362325788</v>
+        <v>0.002093020593747497</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0005465429276227951</v>
+        <v>0.002072741510346532</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.003163869027048349</v>
+        <v>0.0001607023586984724</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.001727338996715844</v>
+        <v>0.001700909808278084</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.003852523630484939</v>
+        <v>0.0002907766902353615</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.001426731585524976</v>
+        <v>0.0001063748204614967</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.00140650337561965</v>
+        <v>0.004406750667840242</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.003909596242010593</v>
+        <v>0.001216992968693376</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.004145656246691942</v>
+        <v>0.002768763341009617</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0008281859336420894</v>
+        <v>0.002032531192526221</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.005279886070638895</v>
+        <v>0.005140286404639482</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.002412814414128661</v>
+        <v>0.0006920677260495722</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.01175391580909491</v>
+        <v>0.0004869693657383323</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.004613535944372416</v>
+        <v>0.003043929813429713</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.006186723709106445</v>
+        <v>0.0002540204441174865</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.004522534087300301</v>
+        <v>0.0007356035057455301</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.002756975125521421</v>
+        <v>0.00043052903492935</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.005312125198543072</v>
+        <v>0.001081076799891889</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.004591864068061113</v>
+        <v>0.002662718528881669</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.005920106545090675</v>
+        <v>0.001059448230080307</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.003932494670152664</v>
+        <v>0.0002120754797942936</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.002029587049037218</v>
+        <v>0.000662099220789969</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0003836336545646191</v>
+        <v>0.002204646356403828</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.002391934162005782</v>
+        <v>0.001415311358869076</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.005907314363867044</v>
+        <v>0.001141939079388976</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.004115845076739788</v>
+        <v>0.003898124676197767</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.007215098477900028</v>
+        <v>0.00303954747505486</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.004332003649324179</v>
+        <v>0.0003616318281274289</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.003312087384983897</v>
+        <v>5.241049439064227e-05</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.003595093498006463</v>
+        <v>0.001520808436907828</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.008470470085740089</v>
+        <v>0.0005296372692100704</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.002143374178558588</v>
+        <v>0.003091763006523252</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.007024259772151709</v>
+        <v>0.0002434823836665601</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0026893001049757</v>
+        <v>0.001099154236726463</v>
       </c>
       <c r="FB5" t="n">
-        <v>2.780661452561617e-05</v>
+        <v>0.0001554804766783491</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.0006085236673243344</v>
+        <v>0.001516819698736072</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.00115317793097347</v>
+        <v>0.001573552377521992</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.003817846300080419</v>
+        <v>0.0009592347778379917</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.001183213898912072</v>
+        <v>0.0006572615238837898</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.006706585176289082</v>
+        <v>0.0004260482382960618</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.00303839216940105</v>
+        <v>0.001531140529550612</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.00448952428996563</v>
+        <v>0.0006108380039222538</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.00944886077195406</v>
+        <v>0.005385290831327438</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.004572802223265171</v>
+        <v>0.002835908439010382</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.002314201323315501</v>
+        <v>0.002018705708906054</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.005598402582108974</v>
+        <v>0.002423823811113834</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.01001745462417603</v>
+        <v>0.003488102229312062</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.005301796831190586</v>
+        <v>0.001657220302149653</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.004925034008920193</v>
+        <v>0.0006646309047937393</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.01841578632593155</v>
+        <v>0.008206634782254696</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.001393524114973843</v>
+        <v>0.0008929843315854669</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.005640112794935703</v>
+        <v>0.003764783265069127</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.002382974838837981</v>
+        <v>0.003796037286520004</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.002040099818259478</v>
+        <v>0.00151974312029779</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.001840603188611567</v>
+        <v>0.003261900972574949</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.001544540980830789</v>
+        <v>0.002000676468014717</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.004115771502256393</v>
+        <v>0.001333662308752537</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.002035921672359109</v>
+        <v>0.001759701641276479</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.008378776721656322</v>
+        <v>0.002349411137402058</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.002416835865005851</v>
+        <v>0.004034532699733973</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.01066470332443714</v>
+        <v>0.000431941996794194</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.003412624821066856</v>
+        <v>0.001249405322596431</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.009162020869553089</v>
+        <v>0.0002874922065529972</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0006980709731578827</v>
+        <v>0.0006094096461310983</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.005703447852283716</v>
+        <v>0.002108735032379627</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.003189645009115338</v>
+        <v>0.0005444562993943691</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2965505719184875</v>
+        <v>0.004932221490889788</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0525447204709053</v>
+        <v>0.1898225396871567</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1956515312194824</v>
+        <v>0.01449986826628447</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07859843969345093</v>
+        <v>0.07716482877731323</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02058779820799828</v>
+        <v>0.01066528726369143</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001041455892845988</v>
+        <v>0.1650325357913971</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03463109210133553</v>
+        <v>0.01371394842863083</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05351007357239723</v>
+        <v>0.08047300577163696</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05222165957093239</v>
+        <v>0.01407560892403126</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2724577188491821</v>
+        <v>0.02220493927598</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02234909497201443</v>
+        <v>0.1832575500011444</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2135356664657593</v>
+        <v>0.003145907539874315</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03639206290245056</v>
+        <v>0.09305348992347717</v>
       </c>
       <c r="N6" t="n">
-        <v>0.083890400826931</v>
+        <v>0.007104950957000256</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00723846722394228</v>
+        <v>0.1623567640781403</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07086624205112457</v>
+        <v>0.02702409215271473</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03450267016887665</v>
+        <v>0.01718476787209511</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08205840736627579</v>
+        <v>0.0005736001767218113</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01487991400063038</v>
+        <v>0.01443895511329174</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0590679943561554</v>
+        <v>0.02026915922760963</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01860309578478336</v>
+        <v>0.0005400963127613068</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001700520981103182</v>
+        <v>0.00389213371090591</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05008270591497421</v>
+        <v>0.008972059935331345</v>
       </c>
       <c r="X6" t="n">
-        <v>0.003325523342937231</v>
+        <v>0.01602454856038094</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01005913224071264</v>
+        <v>0.01321648433804512</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.05965064838528633</v>
+        <v>0.0016173105686903</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01554073952138424</v>
+        <v>0.02468407154083252</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0008843739051371813</v>
+        <v>0.008612962439656258</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.02636046521365643</v>
+        <v>0.02078202925622463</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.009660128504037857</v>
+        <v>0.02359092049300671</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.03036052361130714</v>
+        <v>0.01433536875993013</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01038404181599617</v>
+        <v>0.008822694420814514</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.03362530097365379</v>
+        <v>0.005113531835377216</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.04392924532294273</v>
+        <v>0.02235891111195087</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.04439105466008186</v>
+        <v>0.01412278134375811</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.03684930130839348</v>
+        <v>0.002686973894014955</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.03959639370441437</v>
+        <v>0.005677321925759315</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.05106242373585701</v>
+        <v>0.04647911712527275</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.01992242783308029</v>
+        <v>0.007724990136921406</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.04765978828072548</v>
+        <v>0.000840943306684494</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.02930846996605396</v>
+        <v>0.02896258607506752</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.02866878733038902</v>
+        <v>0.02558047324419022</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.003324615769088268</v>
+        <v>0.00688134552910924</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0261821374297142</v>
+        <v>0.01913195848464966</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.005367600359022617</v>
+        <v>0.003082676092162728</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1301826238632202</v>
+        <v>0.03115141950547695</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.03278849273920059</v>
+        <v>0.1228957697749138</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.1156695038080215</v>
+        <v>0.01624429039657116</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.01265549473464489</v>
+        <v>0.01750245131552219</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.01443200372159481</v>
+        <v>0.03112085163593292</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.04902495443820953</v>
+        <v>0.06633980572223663</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.05692518502473831</v>
+        <v>0.025214908644557</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.05943930149078369</v>
+        <v>0.01098111923784018</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.01421647518873215</v>
+        <v>0.005828133318573236</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.07939090579748154</v>
+        <v>0.01415569987148046</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.06507764011621475</v>
+        <v>0.04559669271111488</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.05768873542547226</v>
+        <v>0.03116260655224323</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.006647746078670025</v>
+        <v>0.005055993795394897</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01580732874572277</v>
+        <v>0.04484116286039352</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.02927607297897339</v>
+        <v>0.05225097015500069</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.01490146480500698</v>
+        <v>0.03446203097701073</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.06038281321525574</v>
+        <v>0.00206539174541831</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.0142554510384798</v>
+        <v>0.002427323255687952</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.04070888832211494</v>
+        <v>0.007142340764403343</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.03491627797484398</v>
+        <v>0.006949727423489094</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.04172651469707489</v>
+        <v>0.002231921069324017</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.01824652776122093</v>
+        <v>0.01709442958235741</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.09994389116764069</v>
+        <v>0.02369935996830463</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.03005477786064148</v>
+        <v>0.00102859316393733</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.02683702856302261</v>
+        <v>0.005232838913798332</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.02896594256162643</v>
+        <v>0.003805397544056177</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.008982761763036251</v>
+        <v>0.001796131022274494</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.09597077965736389</v>
+        <v>0.0227385014295578</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.02350085973739624</v>
+        <v>0.06776896864175797</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.04195532947778702</v>
+        <v>0.00419175997376442</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.05840511992573738</v>
+        <v>0.01765240542590618</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.02571654878556728</v>
+        <v>0.001646894495934248</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.02725918963551521</v>
+        <v>0.03729819133877754</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.01408672891557217</v>
+        <v>0.01237975247204304</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.03571609035134315</v>
+        <v>0.01569378934800625</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.007240633480250835</v>
+        <v>0.01948502659797668</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.06136187538504601</v>
+        <v>0.008752092719078064</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.0404450036585331</v>
+        <v>0.02973860688507557</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.04162456095218658</v>
+        <v>0.006785744801163673</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.02083335071802139</v>
+        <v>0.01874200999736786</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.006615276448428631</v>
+        <v>0.003696825820952654</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.00465485779568553</v>
+        <v>0.02938856743276119</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.01087146624922752</v>
+        <v>0.01076326239854097</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.02036844566464424</v>
+        <v>0.007550512440502644</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.00623971875756979</v>
+        <v>0.009911173954606056</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.01204752735793591</v>
+        <v>0.01289779972285032</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.04925639554858208</v>
+        <v>0.0117204524576664</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.0153599139302969</v>
+        <v>0.002620693063363433</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.002086693653836846</v>
+        <v>0.01754024811089039</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.09097402542829514</v>
+        <v>0.001761631923727691</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.006061980500817299</v>
+        <v>0.007606321480125189</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.06039828062057495</v>
+        <v>0.03329448774456978</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.02578107267618179</v>
+        <v>0.05011508241295815</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.04496045410633087</v>
+        <v>0.02519439905881882</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.05969404801726341</v>
+        <v>0.005506737623363733</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.02537508308887482</v>
+        <v>0.02598310820758343</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.04157707095146179</v>
+        <v>0.006660924758762121</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.01326799020171165</v>
+        <v>0.02293020486831665</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.03270765766501427</v>
+        <v>0.000665037427097559</v>
       </c>
       <c r="DA6" t="n">
-        <v>7.358554285019636e-05</v>
+        <v>0.03212658315896988</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.01337563805282116</v>
+        <v>0.005310836248099804</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.0142384534701705</v>
+        <v>0.01222139410674572</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.003830864327028394</v>
+        <v>0.004663512110710144</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.01705716736614704</v>
+        <v>0.003479412291198969</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1059279218316078</v>
+        <v>0.0314556211233139</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.03122159466147423</v>
+        <v>0.02811651490628719</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.01496490277349949</v>
+        <v>0.02948220074176788</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.01564713008701801</v>
+        <v>0.01745802350342274</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.002078622346743941</v>
+        <v>0.04047401621937752</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.02205212786793709</v>
+        <v>0.03619904816150665</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.05444464087486267</v>
+        <v>0.02560694143176079</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.04617538675665855</v>
+        <v>0.01714598946273327</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.001750232884660363</v>
+        <v>0.003848948981612921</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.0635533407330513</v>
+        <v>0.01185567118227482</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.02037261985242367</v>
+        <v>0.01338452007621527</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.009870501235127449</v>
+        <v>0.03327208012342453</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.001634480548091233</v>
+        <v>0.01100332196801901</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.02183305658400059</v>
+        <v>0.02794468402862549</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.04154060035943985</v>
+        <v>0.01267415937036276</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.009369689971208572</v>
+        <v>0.0009427815675735474</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.02918941155076027</v>
+        <v>0.009908542037010193</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.02085544727742672</v>
+        <v>0.01458247378468513</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.02543599344789982</v>
+        <v>0.001216817181557417</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.003526220098137856</v>
+        <v>0.01117919012904167</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.01798321306705475</v>
+        <v>0.02940637245774269</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.02561343088746071</v>
+        <v>0.01304240059107542</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.01682279631495476</v>
+        <v>0.01073440536856651</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.003394810715690255</v>
+        <v>0.01158780232071877</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.03894202411174774</v>
+        <v>0.01657870598137379</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.01115076895803213</v>
+        <v>0.01393055450171232</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.08567626029253006</v>
+        <v>0.01005784329026937</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.04189697653055191</v>
+        <v>0.02665960788726807</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.03699302300810814</v>
+        <v>0.008283111266791821</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.027958694845438</v>
+        <v>0.01336620654910803</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.004282481502741575</v>
+        <v>0.00684764888137579</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.03643158078193665</v>
+        <v>0.02303477935492992</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.01932783797383308</v>
+        <v>0.01427608076483011</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.02446990460157394</v>
+        <v>0.003580819815397263</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.01382287405431271</v>
+        <v>0.003910223487764597</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.01275750156491995</v>
+        <v>0.007427304051816463</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.02453393675386906</v>
+        <v>0.01638954132795334</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.01820055209100246</v>
+        <v>0.00901314802467823</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.03920028358697891</v>
+        <v>0.02340961247682571</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.03368724137544632</v>
+        <v>0.009231012314558029</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.05239845439791679</v>
+        <v>0.03447864577174187</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.03700347244739532</v>
+        <v>0.0009439600398764014</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.02301877737045288</v>
+        <v>0.02665995433926582</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.02849986776709557</v>
+        <v>0.002098522614687681</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.05821341648697853</v>
+        <v>0.005194978788495064</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.01990441232919693</v>
+        <v>0.02557485178112984</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.04382689297199249</v>
+        <v>0.002391077112406492</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.01410038862377405</v>
+        <v>0.01829194091260433</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.009822197258472443</v>
+        <v>0.004556941799819469</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.006112500093877316</v>
+        <v>0.02545879781246185</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.01166724227368832</v>
+        <v>0.01437165774405003</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.01384278386831284</v>
+        <v>0.004609732888638973</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.0064760847017169</v>
+        <v>0.00692880479618907</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.031796894967556</v>
+        <v>0.002191271865740418</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.0197681300342083</v>
+        <v>0.02023151703178883</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.02682020328938961</v>
+        <v>0.003231680020689964</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.04183782264590263</v>
+        <v>0.02624651789665222</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.03528466075658798</v>
+        <v>0.002686031861230731</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.009112871252000332</v>
+        <v>0.001159018371254206</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.0513981319963932</v>
+        <v>0.01605894416570663</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.06215133890509605</v>
+        <v>0.01777923107147217</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.02536926791071892</v>
+        <v>0.004461050964891911</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.02265236899256706</v>
+        <v>0.007723974995315075</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.09395717829465866</v>
+        <v>0.07278414070606232</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.02288943529129028</v>
+        <v>0.003897509071975946</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.04350430890917778</v>
+        <v>0.03566141426563263</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.01418872177600861</v>
+        <v>0.02268661744892597</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.01604893431067467</v>
+        <v>0.01974439062178135</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.02243610471487045</v>
+        <v>0.03734816983342171</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.01738807186484337</v>
+        <v>0.01480162516236305</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.02450729161500931</v>
+        <v>0.002250397112220526</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.003753942903131247</v>
+        <v>0.006912993267178535</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.05833642184734344</v>
+        <v>0.01764107309281826</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.002234917134046555</v>
+        <v>0.01959363557398319</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.06630548089742661</v>
+        <v>0.002422645222395658</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.0287437979131937</v>
+        <v>0.05367186293005943</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.04280443117022514</v>
+        <v>0.01839788630604744</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.00591878779232502</v>
+        <v>0.04627528414130211</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.0539814829826355</v>
+        <v>0.01780795678496361</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.007682136259973049</v>
+        <v>0.007702364586293697</v>
       </c>
     </row>
     <row r="7">
@@ -4418,571 +4418,571 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02189571969211102</v>
+        <v>0.006337128579616547</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003836783114820719</v>
+        <v>0.2254987955093384</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01400654762983322</v>
+        <v>0.009193019941449165</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007682663854211569</v>
+        <v>0.03352408483624458</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0004928295966237783</v>
+        <v>0.01962108910083771</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002447252394631505</v>
+        <v>0.1867953240871429</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004751061089336872</v>
+        <v>0.03120177611708641</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004297624807804823</v>
+        <v>0.07849646359682083</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006622462999075651</v>
+        <v>0.05664204061031342</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01999825984239578</v>
+        <v>0.01588759571313858</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002218557754531503</v>
+        <v>0.2068288028240204</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01648944988846779</v>
+        <v>0.001409073360264301</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003980585839599371</v>
+        <v>0.053302101790905</v>
       </c>
       <c r="N8" t="n">
-        <v>0.005100380163639784</v>
+        <v>0.01607435941696167</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002039811108261347</v>
+        <v>0.1847093254327774</v>
       </c>
       <c r="P8" t="n">
-        <v>0.007164415903389454</v>
+        <v>0.02962636016309261</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004247904289513826</v>
+        <v>0.02320015802979469</v>
       </c>
       <c r="R8" t="n">
-        <v>0.009164356626570225</v>
+        <v>0.03362365812063217</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001152074313722551</v>
+        <v>0.01826328411698341</v>
       </c>
       <c r="T8" t="n">
-        <v>0.006407237146049738</v>
+        <v>0.000622984953224659</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001174878096207976</v>
+        <v>0.0411359928548336</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0007112501771189272</v>
+        <v>0.001159008592367172</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002644214313477278</v>
+        <v>0.01536037307232618</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001145278802141547</v>
+        <v>0.03183647617697716</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.000836194318253547</v>
+        <v>0.0124373733997345</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.004263621754944324</v>
+        <v>0.01068171020597219</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0006250697188079357</v>
+        <v>0.01394857279956341</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.000561127089895308</v>
+        <v>0.02105667628347874</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.001065109623596072</v>
+        <v>0.02981680072844028</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.001783106126822531</v>
+        <v>0.02669145911931992</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.002517146524041891</v>
+        <v>0.008495443500578403</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.002189149148762226</v>
+        <v>0.02539194002747536</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0003984177310485393</v>
+        <v>0.01702799648046494</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.002942206338047981</v>
+        <v>0.00434259744361043</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.004639165010303259</v>
+        <v>0.005457638762891293</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.003552227281033993</v>
+        <v>0.006828974466770887</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.003145890310406685</v>
+        <v>0.01838987693190575</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.004293612670153379</v>
+        <v>0.0144340768456459</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.001234824536368251</v>
+        <v>0.04749506339430809</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.004676919430494308</v>
+        <v>0.002310731448233128</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.002109193941578269</v>
+        <v>0.0257717277854681</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.001046746969223022</v>
+        <v>0.02245712280273438</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5.670846439898014e-05</v>
+        <v>0.02098400704562664</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0001679206907283515</v>
+        <v>0.01671953126788139</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0003892323875334114</v>
+        <v>0.01340599916875362</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.009384168311953545</v>
+        <v>0.02026968076825142</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.002084522740915418</v>
+        <v>0.1769330352544785</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.006710081361234188</v>
+        <v>0.06777129322290421</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0008851638995110989</v>
+        <v>0.01691693067550659</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.004038487561047077</v>
+        <v>0.06824196875095367</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.003420407650992274</v>
+        <v>0.01834611035883427</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.004008017014712095</v>
+        <v>0.0356488935649395</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.006496048532426357</v>
+        <v>0.0226062498986721</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.001746749971061945</v>
+        <v>0.0262183453887701</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.006186133250594139</v>
+        <v>0.01821441762149334</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.005106854718178511</v>
+        <v>0.07222583889961243</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.005052320659160614</v>
+        <v>0.04024336114525795</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0008791956352069974</v>
+        <v>0.01077222637832165</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.002185298129916191</v>
+        <v>0.01660175621509552</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.001513118739239872</v>
+        <v>0.1281514018774033</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.003250654553994536</v>
+        <v>0.01179775595664978</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.004509655758738518</v>
+        <v>0.01138666365295649</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.001280491938814521</v>
+        <v>0.02578276209533215</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.003078076522797346</v>
+        <v>0.02819574996829033</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.00212754332460463</v>
+        <v>0.007405277341604233</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.003444395260885358</v>
+        <v>0.01272223703563213</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0008186443010345101</v>
+        <v>0.01843443140387535</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.004869123920798302</v>
+        <v>0.01800062507390976</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.001488325069658458</v>
+        <v>0.01502933539450169</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.002424604725092649</v>
+        <v>0.02527914196252823</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0002235072897747159</v>
+        <v>0.01050795987248421</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0002527163596823812</v>
+        <v>0.006882955320179462</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.007188799791038036</v>
+        <v>0.006257204804569483</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.001965589122846723</v>
+        <v>0.07905381172895432</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.002268450800329447</v>
+        <v>0.05140092223882675</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.004585991147905588</v>
+        <v>0.01550669316202402</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.004567835014313459</v>
+        <v>0.03606528788805008</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.003718844614923</v>
+        <v>0.01271382812410593</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0008775999303907156</v>
+        <v>0.002099876990541816</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.00443536788225174</v>
+        <v>0.00547025864943862</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.004784352146089077</v>
+        <v>0.009033834561705589</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.00456136092543602</v>
+        <v>0.004371790681034327</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.003529669251292944</v>
+        <v>0.03079241141676903</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.003379004076123238</v>
+        <v>0.007346308790147305</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.00168781669344753</v>
+        <v>0.0004112794995307922</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0008000110392458737</v>
+        <v>0.006892998702824116</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.0007138217333704233</v>
+        <v>0.03955304995179176</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0005489950417540967</v>
+        <v>0.009766392409801483</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0006385174347087741</v>
+        <v>0.009433463215827942</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.0002365240652579814</v>
+        <v>0.0005277765449136496</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.0005766788381151855</v>
+        <v>0.002097209915518761</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.006072391755878925</v>
+        <v>0.0422283411026001</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.001442751730792224</v>
+        <v>0.0009661060757935047</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.001104919007048011</v>
+        <v>0.02990847453474998</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.008896058425307274</v>
+        <v>0.01854408532381058</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.0007768084178678691</v>
+        <v>0.001685178256593645</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.004688757471740246</v>
+        <v>0.02139819040894508</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.002062130020931363</v>
+        <v>0.06120843067765236</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.002218040404841304</v>
+        <v>0.03041131980717182</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.004405023530125618</v>
+        <v>0.0008503708522766829</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.002541476162150502</v>
+        <v>0.02746818214654922</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.003637672401964664</v>
+        <v>0.01196713373064995</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.001103373593650758</v>
+        <v>0.006669678259640932</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.002649294678121805</v>
+        <v>0.0008493888890370727</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0004831085097976029</v>
+        <v>0.04332128539681435</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.000667552521917969</v>
+        <v>0.004196921829134226</v>
       </c>
       <c r="DC8" t="n">
-        <v>6.409973138943315e-06</v>
+        <v>0.007144023664295673</v>
       </c>
       <c r="DD8" t="n">
-        <v>5.053742279415019e-05</v>
+        <v>0.008369290269911289</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.002074867254123092</v>
+        <v>0.0294332280755043</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.01045865099877119</v>
+        <v>0.02797146700322628</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.005978993605822325</v>
+        <v>0.0008516790112480521</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.003267677500844002</v>
+        <v>0.07179829478263855</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.001787190325558186</v>
+        <v>0.03898718953132629</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.002582899294793606</v>
+        <v>0.04915980249643326</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.00108171091414988</v>
+        <v>0.01099661365151405</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0007583787082694471</v>
+        <v>0.03705263882875443</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.003589510684832931</v>
+        <v>0.04561534151434898</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.0003389074699953198</v>
+        <v>0.02728332579135895</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.006200290285050869</v>
+        <v>0.01646589487791061</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.003951199352741241</v>
+        <v>0.002617180580273271</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0003268670116085559</v>
+        <v>0.01179766841232777</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.001082348404452205</v>
+        <v>0.01793369278311729</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.0004472041036933661</v>
+        <v>0.02808619849383831</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.001234740484505892</v>
+        <v>0.01096764858812094</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0007204607827588916</v>
+        <v>0.0006651575677096844</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.002753694541752338</v>
+        <v>0.01022319961339235</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.00167504814453423</v>
+        <v>0.01527922227978706</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.002217819448560476</v>
+        <v>0.01894515193998814</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.0001525514526292682</v>
+        <v>0.003412352874875069</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.001118983956985176</v>
+        <v>0.008498013019561768</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.003164672991260886</v>
+        <v>0.008117343299090862</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.002474630251526833</v>
+        <v>0.004465238191187382</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0003454608377069235</v>
+        <v>0.01008559670299292</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.001576313748955727</v>
+        <v>0.03763343766331673</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.0001605961006134748</v>
+        <v>0.03974058479070663</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.006444902624934912</v>
+        <v>0.002716139424592257</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.004403552506119013</v>
+        <v>0.04307126626372337</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.002768210833892226</v>
+        <v>0.02970799058675766</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.002923713997006416</v>
+        <v>0.01639493927359581</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.00156836467795074</v>
+        <v>0.01502093859016895</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.002037659985944629</v>
+        <v>0.01574276015162468</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.001590613042935729</v>
+        <v>0.006429391447454691</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.0009494349360466003</v>
+        <v>0.002870905678719282</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.00260343006812036</v>
+        <v>0.001762071740813553</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0004898927873000503</v>
+        <v>0.01953715085983276</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.00268396851606667</v>
+        <v>0.02057600952684879</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.0001867057872004807</v>
+        <v>0.03717704117298126</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.002340761013329029</v>
+        <v>0.01076085679233074</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.002237420063465834</v>
+        <v>0.03111697733402252</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.001407047850079834</v>
+        <v>0.02979939430952072</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.00129730673506856</v>
+        <v>0.03318275511264801</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.001718148472718894</v>
+        <v>0.03001009859144688</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.001981911482289433</v>
+        <v>0.0236916970461607</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.004303408786654472</v>
+        <v>0.003600636031478643</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.002153810346499085</v>
+        <v>0.02302149496972561</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.003753070719540119</v>
+        <v>0.0155611913651228</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.001153117860667408</v>
+        <v>0.00718779768794775</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.0008051843615248799</v>
+        <v>0.01320209540426731</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.0002367835404584184</v>
+        <v>0.03791967406868935</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0007362993201240897</v>
+        <v>0.004149205982685089</v>
       </c>
       <c r="FE8" t="n">
-        <v>5.732686258852482e-05</v>
+        <v>0.001462555024772882</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.0001906888501252979</v>
+        <v>0.008435643278062344</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.00340598076581955</v>
+        <v>0.003581511089578271</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.002804036485031247</v>
+        <v>0.008022638037800789</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.001783683430403471</v>
+        <v>0.04107564687728882</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.002753488719463348</v>
+        <v>0.006455433554947376</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.002293647034093738</v>
+        <v>0.001655264990404248</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.001414797618053854</v>
+        <v>0.02253260090947151</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.003658914472907782</v>
+        <v>0.01649437844753265</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.002357082674279809</v>
+        <v>0.01552555710077286</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.002031819662079215</v>
+        <v>0.006691554095596075</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.001809563720598817</v>
+        <v>0.01940113864839077</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.005881232675164938</v>
+        <v>0.03730789944529533</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.0008475484792143106</v>
+        <v>0.05847295001149178</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.002920516300946474</v>
+        <v>0.05493466556072235</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.003160544903948903</v>
+        <v>0.003595026675611734</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.001566904596984386</v>
+        <v>0.008629857562482357</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0005813619936816394</v>
+        <v>0.001056245295330882</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.0005802884115837514</v>
+        <v>0.03043125197291374</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.003808398498222232</v>
+        <v>0.01018489710986614</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.001216740347445011</v>
+        <v>0.02536481246352196</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.003509151749312878</v>
+        <v>0.03382181748747826</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.0008783075027167797</v>
+        <v>0.02103947475552559</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.003767698770388961</v>
+        <v>0.0370052307844162</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.0003962926857639104</v>
+        <v>0.04313221201300621</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.004308335948735476</v>
+        <v>0.01859639957547188</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.001388415927067399</v>
+        <v>0.02941064722836018</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.004230490885674953</v>
+        <v>0.01275361236184835</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.001977477921172976</v>
+        <v>0.02252228558063507</v>
       </c>
     </row>
     <row r="9">
@@ -5556,3415 +5556,3984 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.03538846969604492</v>
+        <v>0.135311633348465</v>
       </c>
       <c r="B10" t="n">
-        <v>0.009517624974250793</v>
+        <v>0.1653430908918381</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0415014959871769</v>
+        <v>0.006502175703644753</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01190825272351503</v>
+        <v>0.2344082593917847</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03322136402130127</v>
+        <v>0.3852380514144897</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006425916217267513</v>
+        <v>0.2809660732746124</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004254990722984076</v>
+        <v>0.100064180791378</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004971944727003574</v>
+        <v>0.06730915606021881</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006018930580466986</v>
+        <v>0.1554788500070572</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03437724336981773</v>
+        <v>0.1350819319486618</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001041043899022043</v>
+        <v>0.1612603813409805</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04199225455522537</v>
+        <v>0.03342124447226524</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0102749215438962</v>
+        <v>0.1291160881519318</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01091662421822548</v>
+        <v>0.09268695861101151</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001976168481633067</v>
+        <v>0.1744633466005325</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0003170149866491556</v>
+        <v>0.1130634695291519</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.006198599934577942</v>
+        <v>0.1826255917549133</v>
       </c>
       <c r="R10" t="n">
-        <v>0.007440095767378807</v>
+        <v>0.1225968599319458</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001594105851836503</v>
+        <v>0.03870095312595367</v>
       </c>
       <c r="T10" t="n">
-        <v>0.005112809129059315</v>
+        <v>0.04019620642066002</v>
       </c>
       <c r="U10" t="n">
-        <v>0.003286410123109818</v>
+        <v>0.08046405762434006</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0004166463040746748</v>
+        <v>0.236250713467598</v>
       </c>
       <c r="W10" t="n">
-        <v>0.007724656723439693</v>
+        <v>0.1719375401735306</v>
       </c>
       <c r="X10" t="n">
-        <v>0.005289603024721146</v>
+        <v>0.1072051748633385</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.716303035616875e-05</v>
+        <v>0.1276056170463562</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.001487066969275475</v>
+        <v>0.01452457625418901</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.002532823942601681</v>
+        <v>0.04016236960887909</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0009456678526476026</v>
+        <v>0.12892746925354</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.003892688546329737</v>
+        <v>0.002870414406061172</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.005701723974198103</v>
+        <v>0.1352840065956116</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.009045161306858063</v>
+        <v>0.08171200752258301</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.01124873477965593</v>
+        <v>0.005144533701241016</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.004346617497503757</v>
+        <v>0.08159405738115311</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.001559322699904442</v>
+        <v>0.1708514839410782</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.006562529597431421</v>
+        <v>0.009263573214411736</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.00853127334266901</v>
+        <v>0.09871479868888855</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.007284210529178381</v>
+        <v>0.05713561922311783</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.01050692051649094</v>
+        <v>0.03266903758049011</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.004596055950969458</v>
+        <v>0.05211129784584045</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.007052396424114704</v>
+        <v>0.02024291269481182</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0008747501997277141</v>
+        <v>0.01067927666008472</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.002841626759618521</v>
+        <v>0.005377279594540596</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0001544990227557719</v>
+        <v>0.01778368279337883</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.009734529070556164</v>
+        <v>0.05825959146022797</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0004296848201192915</v>
+        <v>0.0560215450823307</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.02088410966098309</v>
+        <v>0.07601355016231537</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.01399110164493322</v>
+        <v>0.1184127777814865</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.02436693944036961</v>
+        <v>0.01959701627492905</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0002357186749577522</v>
+        <v>0.1075810045003891</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.001229286077432334</v>
+        <v>0.3733243346214294</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01344331912696362</v>
+        <v>0.1574293673038483</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.01025466620922089</v>
+        <v>0.001210764050483704</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.002997187897562981</v>
+        <v>0.0005675628781318665</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.001768082845956087</v>
+        <v>0.1074618250131607</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.003527994267642498</v>
+        <v>0.03640352189540863</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.004482556134462357</v>
+        <v>0.04650304466485977</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.01067155599594116</v>
+        <v>0.02653205953538418</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.00539511302486062</v>
+        <v>0.07995927333831787</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.01884863898158073</v>
+        <v>0.118045948445797</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.008080378174781799</v>
+        <v>0.05985207110643387</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.008630849421024323</v>
+        <v>0.07391659170389175</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.005173808895051479</v>
+        <v>0.01646274887025356</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.003533500945195556</v>
+        <v>0.02688459120690823</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.007477837149053812</v>
+        <v>0.03526924178004265</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.004176842048764229</v>
+        <v>0.01944616809487343</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.00790358055382967</v>
+        <v>0.04371058195829391</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0008893774356693029</v>
+        <v>0.08393068611621857</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.006311823148280382</v>
+        <v>0.03134135156869888</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.004556360654532909</v>
+        <v>0.01351713575422764</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.002502690069377422</v>
+        <v>0.04673189669847488</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.01116714999079704</v>
+        <v>0.08831438422203064</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.001151365810073912</v>
+        <v>0.1046549752354622</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.01604658365249634</v>
+        <v>0.08731599897146225</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.006517806090414524</v>
+        <v>0.1379473954439163</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.009553737938404083</v>
+        <v>0.02382417023181915</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.007048915140330791</v>
+        <v>0.1063645929098129</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.01324552483856678</v>
+        <v>0.1064787954092026</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.004222279880195856</v>
+        <v>0.008736412972211838</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.004682445432990789</v>
+        <v>0.05586868897080421</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.004321521148085594</v>
+        <v>0.04273073375225067</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.002302662003785372</v>
+        <v>0.06344380229711533</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.008628212846815586</v>
+        <v>0.01166395097970963</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0092194564640522</v>
+        <v>0.01950310170650482</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.006685747765004635</v>
+        <v>0.01330580189824104</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.002703097881749272</v>
+        <v>0.07350870966911316</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.002811908721923828</v>
+        <v>0.06054389849305153</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.002412795787677169</v>
+        <v>0.0697624459862709</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0003800285921897739</v>
+        <v>0.01717938855290413</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.001252132700756192</v>
+        <v>3.372691571712494e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0002717188908718526</v>
+        <v>0.0118965320289135</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.005771390162408352</v>
+        <v>0.02882495522499084</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.003484746906906366</v>
+        <v>0.07396440207958221</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.002352230716496706</v>
+        <v>0.02157224342226982</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.0003441253211349249</v>
+        <v>0.0981295257806778</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.00370854209177196</v>
+        <v>0.1792449355125427</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0003300289390608668</v>
+        <v>0.02385526895523071</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.007693491876125336</v>
+        <v>0.05285262316465378</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.005863429512828588</v>
+        <v>0.033943060785532</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0004279580607544631</v>
+        <v>0.01638950034976006</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.008367710746824741</v>
+        <v>0.01181018818169832</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.008677258156239986</v>
+        <v>0.008080905303359032</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.007339977659285069</v>
+        <v>0.009059548377990723</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0004552571335807443</v>
+        <v>0.06042948737740517</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.007351339794695377</v>
+        <v>0.07923152297735214</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.002755242632701993</v>
+        <v>0.07751481235027313</v>
       </c>
       <c r="DB10" t="n">
-        <v>3.839249256998301e-05</v>
+        <v>0.01938391476869583</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.001292304368689656</v>
+        <v>0.04226690530776978</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.00150958588346839</v>
+        <v>0.02426087856292725</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.003843032754957676</v>
+        <v>0.06882862746715546</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.02088219299912453</v>
+        <v>0.1312515735626221</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.005639644805341959</v>
+        <v>0.02873318642377853</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.01062291674315929</v>
+        <v>0.1879904121160507</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.002635791897773743</v>
+        <v>0.3411277830600739</v>
       </c>
       <c r="DJ10" t="n">
-        <v>3.316835500299931e-05</v>
+        <v>0.2070213854312897</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0002613395918160677</v>
+        <v>0.05971021577715874</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.005299069453030825</v>
+        <v>0.09650947153568268</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.001945334719493985</v>
+        <v>0.1310652494430542</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.008354145102202892</v>
+        <v>0.06921199709177017</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.008599214255809784</v>
+        <v>0.03059006109833717</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.002569260774180293</v>
+        <v>0.0335882380604744</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0001427214592695236</v>
+        <v>0.1652126312255859</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.007622844539582729</v>
+        <v>0.0007038074545562267</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.008139973506331444</v>
+        <v>0.04568776860833168</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.002899664919823408</v>
+        <v>0.03058597445487976</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.001696660066954792</v>
+        <v>0.02317536249756813</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.002822438487783074</v>
+        <v>0.04217897355556488</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.001613720320165157</v>
+        <v>0.05092039704322815</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.003252547699958086</v>
+        <v>0.04931553080677986</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.004201143980026245</v>
+        <v>0.06215467303991318</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.002272971207275987</v>
+        <v>0.06133819371461868</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.005228754132986069</v>
+        <v>0.04659856855869293</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.0008662051404826343</v>
+        <v>0.05154174566268921</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.001686121104285121</v>
+        <v>0.01697863452136517</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.008486662991344929</v>
+        <v>0.1481193155050278</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.001768746413290501</v>
+        <v>0.0814923569560051</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.008141891099512577</v>
+        <v>0.03687009960412979</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.00494173401966691</v>
+        <v>0.03355803340673447</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.00775033375248313</v>
+        <v>0.05173126980662346</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.004937504418194294</v>
+        <v>0.03931259363889694</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.005302878096699715</v>
+        <v>0.08811970055103302</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.01407485362142324</v>
+        <v>0.08330881595611572</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.004573551472276449</v>
+        <v>0.02168301865458488</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.00340459356084466</v>
+        <v>0.008330652490258217</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.003293463494628668</v>
+        <v>0.007664009928703308</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.00101783883292228</v>
+        <v>0.0001759315637173131</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.01295213215053082</v>
+        <v>0.04433497786521912</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.003772962372750044</v>
+        <v>0.01109546422958374</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.002797879278659821</v>
+        <v>0.04133779928088188</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.003126586554571986</v>
+        <v>0.01830379851162434</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.005993942730128765</v>
+        <v>0.07864278554916382</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.006065292749553919</v>
+        <v>0.02801475860178471</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.006277129985392094</v>
+        <v>0.01059364527463913</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.006671396549791098</v>
+        <v>0.002884803339838982</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.009394102729856968</v>
+        <v>0.008326785638928413</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.006807587575167418</v>
+        <v>0.01515361666679382</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.006312961224466562</v>
+        <v>0.01187467016279697</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0001065610849764198</v>
+        <v>0.07827828824520111</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.004541011992841959</v>
+        <v>0.07343935966491699</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.001544940867461264</v>
+        <v>0.07049860805273056</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0009301591198891401</v>
+        <v>0.008302913978695869</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.00294207432307303</v>
+        <v>0.03765877336263657</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.001991990255191922</v>
+        <v>0.005020244047045708</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.008531047031283379</v>
+        <v>0.03182993084192276</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.0009374099900014699</v>
+        <v>0.04836858808994293</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.005342561285942793</v>
+        <v>0.05659164488315582</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.01077041961252689</v>
+        <v>0.0122813917696476</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.008354737423360348</v>
+        <v>0.0401843786239624</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.008686313405632973</v>
+        <v>0.006499111652374268</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.002017280552536249</v>
+        <v>0.02171509340405464</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.002279043896123767</v>
+        <v>0.0650499016046524</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.0007184741552919149</v>
+        <v>0.1024797186255455</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.006624982226639986</v>
+        <v>0.03889228031039238</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.01668684743344784</v>
+        <v>0.05195017904043198</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.003843491664156318</v>
+        <v>0.11325503885746</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.02309609390795231</v>
+        <v>0.05544129014015198</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.007368185091763735</v>
+        <v>0.1484283804893494</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.001553704729303718</v>
+        <v>0.01044987142086029</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.005364514421671629</v>
+        <v>0.09051076322793961</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.003956065978854895</v>
+        <v>0.0796375572681427</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.002735711168497801</v>
+        <v>0.02190263941884041</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0007153019541874528</v>
+        <v>0.04243583977222443</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.002903406741097569</v>
+        <v>0.06585504859685898</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.002302783541381359</v>
+        <v>0.01535485684871674</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.00325375609099865</v>
+        <v>0.05390511080622673</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.01569364033639431</v>
+        <v>0.2072794735431671</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.000305648660287261</v>
+        <v>0.004952344112098217</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.001527839922346175</v>
+        <v>0.09765831381082535</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.004598123952746391</v>
+        <v>0.03123034164309502</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.002291110111400485</v>
+        <v>0.01346759684383869</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.004478718154132366</v>
+        <v>0.0002882994594983757</v>
       </c>
       <c r="B11" t="n">
-        <v>0.002043580636382103</v>
+        <v>0.002414235845208168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03218880295753479</v>
+        <v>9.450677316635847e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003150938544422388</v>
+        <v>0.001315718982368708</v>
       </c>
       <c r="E11" t="n">
-        <v>0.007416537962853909</v>
+        <v>0.0002965587773360312</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005424987524747849</v>
+        <v>0.0008198233554139733</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004418504424393177</v>
+        <v>1.936909393407404e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01201611757278442</v>
+        <v>0.00108611339237541</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02225759252905846</v>
+        <v>0.0001373308041365817</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004970242269337177</v>
+        <v>7.589737651869655e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.006361871957778931</v>
+        <v>0.002033142140135169</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03032825514674187</v>
+        <v>8.360471838386729e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003018870251253247</v>
+        <v>0.0009866085601970553</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0007135611958801746</v>
+        <v>6.532522093039006e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008502647280693054</v>
+        <v>0.001118564046919346</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0005152279045432806</v>
+        <v>0.0003324606805108488</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.009228252805769444</v>
+        <v>0.0003458766150288284</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02334868162870407</v>
+        <v>0.0001014240260701627</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001225218642503023</v>
+        <v>0.0001648771722102538</v>
       </c>
       <c r="T11" t="n">
-        <v>0.007375204004347324</v>
+        <v>0.0003387121832929552</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0004351325333118439</v>
+        <v>4.850974073633552e-05</v>
       </c>
       <c r="V11" t="n">
-        <v>0.002730336273089051</v>
+        <v>0.0002988993655890226</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002969502937048674</v>
+        <v>0.0002855330531019717</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0008944422006607056</v>
+        <v>8.392340532736853e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0008049731841310859</v>
+        <v>0.0001930580183397979</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001856268383562565</v>
+        <v>0.0001939451904036105</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.001671898295171559</v>
+        <v>0.0002941074781119823</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0009452960221096873</v>
+        <v>0.0001487163972342387</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.004067540168762207</v>
+        <v>0.0003684732364490628</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.003990044817328453</v>
+        <v>0.0001703893503872678</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.005863819736987352</v>
+        <v>0.0002568238705862314</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.005272414535284042</v>
+        <v>7.057009497657418e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.002717241179198027</v>
+        <v>2.435110945953056e-05</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.132632890716195e-05</v>
+        <v>7.619582902407274e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0009329164167866111</v>
+        <v>0.0002283557987539098</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.005330091342329979</v>
+        <v>0.0001175752404378727</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0008573165396228433</v>
+        <v>0.0003567311214283109</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0009634158341214061</v>
+        <v>0.0003593777946662158</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.00665981974452734</v>
+        <v>1.629308644623961e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.001922216732054949</v>
+        <v>7.738326530670747e-05</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.003483094740658998</v>
+        <v>0.0001324865879723802</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.001808196888305247</v>
+        <v>0.0003119593602605164</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.0009032778325490654</v>
+        <v>0.0001049740094458684</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.001962648704648018</v>
+        <v>0.0003004039172083139</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0008853633189573884</v>
+        <v>9.512968244962394e-05</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.00235036457888782</v>
+        <v>0.0002146050392184407</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.002127335406839848</v>
+        <v>0.001607438316568732</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.01815010420978069</v>
+        <v>0.0001914437452796847</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.0002896691730711609</v>
+        <v>9.614793088985607e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.003804071806371212</v>
+        <v>0.0001012975408229977</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.002850059419870377</v>
+        <v>0.0006441732402890921</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.002282736822962761</v>
+        <v>4.343685577623546e-05</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.004233552608639002</v>
+        <v>0.0004670838243328035</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.01080137584358454</v>
+        <v>0.0001621444680495188</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0004273816884960979</v>
+        <v>0.0002564426395110786</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.003407349577173591</v>
+        <v>0.0003897461574524641</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.005352143663913012</v>
+        <v>0.0004575553175527602</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0004229739424772561</v>
+        <v>0.0003244603867642581</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.008446324616670609</v>
+        <v>0.0002536664833314717</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.007196571677923203</v>
+        <v>5.035245339968242e-05</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0009469223441556096</v>
+        <v>7.461859786417335e-05</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.003782965941354632</v>
+        <v>0.0001989781594602391</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0053971316665411</v>
+        <v>0.0001156020589405671</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0009595945011824369</v>
+        <v>0.000157238362589851</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.001953143626451492</v>
+        <v>0.0002395060146227479</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.002606090623885393</v>
+        <v>0.0001844736543716863</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0009382751304656267</v>
+        <v>0.0001572287292219698</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.007250251248478889</v>
+        <v>0.0002525019226595759</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.003393458668142557</v>
+        <v>0.0001452516880817711</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.001599840587005019</v>
+        <v>1.091157901100814e-05</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.003180564614012837</v>
+        <v>2.186009078286588e-05</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.002919279970228672</v>
+        <v>0.0001856932940427214</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.005019214004278183</v>
+        <v>0.0001481944491388276</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.002743358258157969</v>
+        <v>0.000933852163143456</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.01210807543247938</v>
+        <v>0.0001815161958802491</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.001811395864933729</v>
+        <v>0.0001586041034897789</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.00614492129534483</v>
+        <v>1.094008621294051e-05</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.003156144171953201</v>
+        <v>0.0003810867783613503</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0007372459513135254</v>
+        <v>9.531361138215289e-05</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.002959009725600481</v>
+        <v>0.0001782599429134279</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.007529314607381821</v>
+        <v>0.0002623872715048492</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.001097262604162097</v>
+        <v>4.120108860661276e-05</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.0009948936058208346</v>
+        <v>0.0004262422444298863</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.005636598914861679</v>
+        <v>0.0001637521345401183</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.0003028884530067444</v>
+        <v>0.0002162939927075058</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.0006565775256603956</v>
+        <v>9.927205246640369e-05</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.002500549890100956</v>
+        <v>9.701875387690961e-05</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.0005553257651627064</v>
+        <v>7.601481775054708e-05</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.002603085013106465</v>
+        <v>0.0001860141201177612</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.003997345454990864</v>
+        <v>0.0001515437616035342</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.003024545963853598</v>
+        <v>0.0004080647486262023</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.001052823849022388</v>
+        <v>0.0001903949159896001</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0009522190084680915</v>
+        <v>5.65074042242486e-05</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.004076790530234575</v>
+        <v>0.0003612103464547545</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.001484217122197151</v>
+        <v>0.0004894692683592439</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.00248906621709466</v>
+        <v>0.0002595253172330558</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.000200941227376461</v>
+        <v>0.0004086194094270468</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0004819969763047993</v>
+        <v>0.0004371898830868304</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.001007711980491877</v>
+        <v>0.0001438842882635072</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.001244865241460502</v>
+        <v>3.164712325087748e-05</v>
       </c>
       <c r="CW11" t="n">
-        <v>2.021298860199749e-05</v>
+        <v>0.000368686014553532</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.005507538095116615</v>
+        <v>0.0002046919398708269</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0003567238454706967</v>
+        <v>0.0003067740763071924</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.001595344860106707</v>
+        <v>9.379121183883399e-05</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.003604046534746885</v>
+        <v>0.0001349270751234144</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.001118499902077019</v>
+        <v>0.0001122065805247985</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.002552641555666924</v>
+        <v>0.0002787457779049873</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.003007902530953288</v>
+        <v>9.368465543957427e-05</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.003208873560652137</v>
+        <v>0.0002053259668173268</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.001035846187733114</v>
+        <v>0.0003241387312300503</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.007620290387421846</v>
+        <v>5.820272781420499e-05</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.004600209649652243</v>
+        <v>0.001022779382765293</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.003407442476600409</v>
+        <v>6.877866690047085e-05</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.0137704024091363</v>
+        <v>2.13252060348168e-05</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.003507718909531832</v>
+        <v>0.0002159878640668467</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.001987358322367072</v>
+        <v>0.0004819104506168514</v>
       </c>
       <c r="DM11" t="n">
-        <v>3.403984010219574e-06</v>
+        <v>0.0001386665389873087</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.001108646742068231</v>
+        <v>0.0001858624455053359</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.001395937171764672</v>
+        <v>0.0001684580929577351</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0008195305708795786</v>
+        <v>0.0001537600182928145</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.001437604194507003</v>
+        <v>5.378056084737182e-05</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.001250551780685782</v>
+        <v>0.0001836479495977983</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.001542307902127504</v>
+        <v>5.716152008972131e-05</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.001499169273301959</v>
+        <v>0.0002144552563549951</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.005491375457495451</v>
+        <v>0.0001352396939182654</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0001037667971104383</v>
+        <v>0.0002974585513584316</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.004316779784858227</v>
+        <v>1.883282720882562e-06</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.003302962519228458</v>
+        <v>0.0001265972387045622</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0009828254114836454</v>
+        <v>0.0002718616451602429</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.002108624204993248</v>
+        <v>1.948856515809894e-05</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.003055231645703316</v>
+        <v>3.853419912047684e-06</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.001827500876970589</v>
+        <v>0.0002344074455322698</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0003786988090723753</v>
+        <v>6.554724677698687e-05</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.003608643542975187</v>
+        <v>0.0001208224857691675</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.00467326957732439</v>
+        <v>0.0001819569442886859</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.0009257924393750727</v>
+        <v>0.000193452084204182</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.002967290580272675</v>
+        <v>0.0003187627880834043</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.005240841303020716</v>
+        <v>0.0001674660597927868</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.0008527458994649351</v>
+        <v>0.0001578228548169136</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.003953318577259779</v>
+        <v>0.0001797741570044309</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.004245748743414879</v>
+        <v>0.0001227262255270034</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.0007873919676057994</v>
+        <v>2.455746471241582e-05</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.002219526562839746</v>
+        <v>3.766395457205363e-05</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.0006157261086627841</v>
+        <v>0.0001206833621836267</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.002048448892310262</v>
+        <v>6.792187195969746e-05</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.00164931605104357</v>
+        <v>0.000173380074556917</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.00231511564925313</v>
+        <v>0.0002328629343537614</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.001258225995115936</v>
+        <v>0.0001400799956172705</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.000520296860486269</v>
+        <v>0.0001128792864619754</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.001306631602346897</v>
+        <v>1.364167292194907e-05</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.0003979038156103343</v>
+        <v>0.0002197465219069272</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0004118846263736486</v>
+        <v>0.0006463491008616984</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.005912209395319223</v>
+        <v>0.0003725145070347935</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.00200170511379838</v>
+        <v>5.69774056202732e-05</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.000832816120237112</v>
+        <v>0.0003474769764579833</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.00522215710952878</v>
+        <v>0.0001240350829903036</v>
       </c>
       <c r="FA11" t="n">
-        <v>7.742817979305983e-05</v>
+        <v>0.0002220204623881727</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.001070771249942482</v>
+        <v>0.000116642884677276</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.001674151513725519</v>
+        <v>0.000112548797915224</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.0005353376036509871</v>
+        <v>0.0001628368918318301</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.001464814296923578</v>
+        <v>0.0001946634583873674</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.004700926132500172</v>
+        <v>0.0001390354882460088</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.001015471993014216</v>
+        <v>3.761126208701171e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.001108754426240921</v>
+        <v>0.0001294729736400768</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.01015174947679043</v>
+        <v>0.0003403234295547009</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.003524186788126826</v>
+        <v>0.0003561355406418443</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.002995637245476246</v>
+        <v>0.0001321785093750805</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.002700648736208677</v>
+        <v>7.741033914498985e-05</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.0006910914671607316</v>
+        <v>2.298466097272467e-05</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.004650493618100882</v>
+        <v>0.0001979832450160757</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.001486884779296815</v>
+        <v>0.0001259880082216114</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.003354212269186974</v>
+        <v>6.714851770084351e-05</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.006809154525399208</v>
+        <v>0.0003042524913325906</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.004659774713218212</v>
+        <v>0.0003315137582831085</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.001223202794790268</v>
+        <v>7.634861685801297e-05</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.004685917403548956</v>
+        <v>8.535687084076926e-05</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.0001026363461278379</v>
+        <v>5.119352863403037e-05</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.000620655482634902</v>
+        <v>2.379529178142548e-06</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.0005390908336266875</v>
+        <v>0.0001670422207098454</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.008375761099159718</v>
+        <v>5.104943920741789e-05</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.001383619965054095</v>
+        <v>0.0002994289388880134</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.001569502870552242</v>
+        <v>8.677572623128071e-05</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.005354940891265869</v>
+        <v>0.0002333459124201909</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.007043503690510988</v>
+        <v>8.366405381821096e-05</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.004666532389819622</v>
+        <v>0.0003999152395408601</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.003331377170979977</v>
+        <v>0.0002463759446982294</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.001590844709426165</v>
+        <v>0.001051922328770161</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.005643218755722046</v>
+        <v>3.458152423263527e-05</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.00697247451171279</v>
+        <v>0.0004176950315013528</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.4511900246143341</v>
+        <v>0.3215585649013519</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1009125113487244</v>
+        <v>3.441300868988037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3183204531669617</v>
+        <v>0.528874933719635</v>
       </c>
       <c r="D12" t="n">
-        <v>0.123666524887085</v>
+        <v>2.213431119918823</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02563473582267761</v>
+        <v>2.135538339614868</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06277841329574585</v>
+        <v>0.4869743585586548</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05454471334815025</v>
+        <v>0.749772846698761</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07101476192474365</v>
+        <v>0.4339165985584259</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1570600569248199</v>
+        <v>0.03021512925624847</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4139533638954163</v>
+        <v>0.2139988988637924</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06926938891410828</v>
+        <v>2.610986948013306</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3325870931148529</v>
+        <v>0.1257594078779221</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06070508807897568</v>
+        <v>1.459911942481995</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1208055466413498</v>
+        <v>1.964255928993225</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05739543586969376</v>
+        <v>0.566487729549408</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1028389632701874</v>
+        <v>0.9133554100990295</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.05294127017259598</v>
+        <v>0.2019776701927185</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2061700224876404</v>
+        <v>0.1200258284807205</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01271583419293165</v>
+        <v>0.004449004307389259</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06306447088718414</v>
+        <v>0.5985603928565979</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03301548212766647</v>
+        <v>0.1026110425591469</v>
       </c>
       <c r="V12" t="n">
-        <v>0.003031295957043767</v>
+        <v>0.3536320328712463</v>
       </c>
       <c r="W12" t="n">
-        <v>0.08577205985784531</v>
+        <v>0.1320252269506454</v>
       </c>
       <c r="X12" t="n">
-        <v>0.02511919476091862</v>
+        <v>0.5026675462722778</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.004304980393499136</v>
+        <v>0.4394773244857788</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.05605323612689972</v>
+        <v>0.3684418499469757</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01169353537261486</v>
+        <v>0.4423376619815826</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.02019599266350269</v>
+        <v>0.1963031888008118</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0424838475883007</v>
+        <v>0.4454294145107269</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01681044138967991</v>
+        <v>0.001558423042297363</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.04546971619129181</v>
+        <v>0.2099548727273941</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.01640647649765015</v>
+        <v>0.25223308801651</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.01221140380948782</v>
+        <v>0.1170714721083641</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.04822877794504166</v>
+        <v>0.3377853631973267</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.07104010879993439</v>
+        <v>0.2451923787593842</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.06132103875279427</v>
+        <v>0.2992213368415833</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.09133091568946838</v>
+        <v>0.1939163655042648</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.07527419179677963</v>
+        <v>0.6704769730567932</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.05421753972768784</v>
+        <v>0.01467826589941978</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.07454477250576019</v>
+        <v>0.08151017129421234</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.06107256188988686</v>
+        <v>0.05044166743755341</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.03242627531290054</v>
+        <v>0.3930818438529968</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.001572276931256056</v>
+        <v>0.1581360399723053</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.01780473440885544</v>
+        <v>0.01215846464037895</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.02315216138958931</v>
+        <v>0.2428881973028183</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.2168615311384201</v>
+        <v>0.221690446138382</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.07106940448284149</v>
+        <v>2.222702741622925</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.1877033412456512</v>
+        <v>0.3239164650440216</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.02013140171766281</v>
+        <v>0.727095901966095</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.02735451422631741</v>
+        <v>0.9240482449531555</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.01266849506646395</v>
+        <v>0.5162045359611511</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.06332237273454666</v>
+        <v>0.123684324324131</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.1229377686977386</v>
+        <v>0.0616433247923851</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.06066261231899261</v>
+        <v>0.194864422082901</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.09347797930240631</v>
+        <v>0.1559788882732391</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0440094992518425</v>
+        <v>0.4732913374900818</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.0676460936665535</v>
+        <v>0.3960175216197968</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.01142973825335503</v>
+        <v>0.6393992304801941</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.07617992907762527</v>
+        <v>1.359655737876892</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.06568802148103714</v>
+        <v>0.2199304848909378</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.04825469851493835</v>
+        <v>0.5761827826499939</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.09494494646787643</v>
+        <v>0.4235074818134308</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.05188931524753571</v>
+        <v>0.1685723066329956</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.04775428026914597</v>
+        <v>0.2689321339130402</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.008989041671156883</v>
+        <v>0.5075494647026062</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.0563933253288269</v>
+        <v>0.2157161980867386</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.00983535498380661</v>
+        <v>0.08131561428308487</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.1208041235804558</v>
+        <v>0.02465623617172241</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.06876660138368607</v>
+        <v>0.2921834588050842</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.003015492111444473</v>
+        <v>0.04102678969502449</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.02953271567821503</v>
+        <v>0.2207917273044586</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.008202702738344669</v>
+        <v>0.0885702520608902</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.1706593781709671</v>
+        <v>0.2157591581344604</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.01974945887923241</v>
+        <v>1.452400326728821</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.08714240044355392</v>
+        <v>0.6176008582115173</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.06121369823813438</v>
+        <v>0.2705165147781372</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.06191066652536392</v>
+        <v>0.6364834904670715</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.05576456338167191</v>
+        <v>0.2447259277105331</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.00795401819050312</v>
+        <v>0.159347265958786</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.07767806947231293</v>
+        <v>0.02607123181223869</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.03258479386568069</v>
+        <v>0.3986836075782776</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.09094315767288208</v>
+        <v>0.07155205309391022</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.07420530915260315</v>
+        <v>0.5450722575187683</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.05899876356124878</v>
+        <v>0.1583328098058701</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.02921064011752605</v>
+        <v>0.3818470537662506</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.02563709765672684</v>
+        <v>0.1889289915561676</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.01614179834723473</v>
+        <v>0.2404663413763046</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.01597871258854866</v>
+        <v>0.1152911335229874</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.01034925505518913</v>
+        <v>0.06569521874189377</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.0138942888006568</v>
+        <v>0.2582741379737854</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.03393228352069855</v>
+        <v>0.4207088649272919</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.01762189716100693</v>
+        <v>0.002686150604858994</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.003068581689149141</v>
+        <v>0.01030020043253899</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.0311281755566597</v>
+        <v>0.0617157407104969</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1193754076957703</v>
+        <v>0.1632850170135498</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.01986420340836048</v>
+        <v>0.1213807687163353</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.03457523509860039</v>
+        <v>0.6822362542152405</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.07311145961284637</v>
+        <v>0.6523936986923218</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.03568663448095322</v>
+        <v>0.01007788628339767</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.08861462026834488</v>
+        <v>0.09010380506515503</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.05809006467461586</v>
+        <v>0.4423431158065796</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.05837868899106979</v>
+        <v>0.2577391266822815</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0183207131922245</v>
+        <v>0.5083239674568176</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.02813816070556641</v>
+        <v>0.08791446685791016</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.0192713737487793</v>
+        <v>0.3953527808189392</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.009649069048464298</v>
+        <v>0.05516044422984123</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.02864650264382362</v>
+        <v>0.07060040533542633</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.01193777658045292</v>
+        <v>0.1471536159515381</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.01403409708291292</v>
+        <v>0.003037318587303162</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.1907961964607239</v>
+        <v>0.6074503660202026</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.0368012934923172</v>
+        <v>0.2410244047641754</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.03564152494072914</v>
+        <v>1.35052478313446</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.06709461659193039</v>
+        <v>0.298189252614975</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.09878335893154144</v>
+        <v>0.1408703476190567</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.04919279366731644</v>
+        <v>0.5839849710464478</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.009069237858057022</v>
+        <v>0.5753165483474731</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.02188277989625931</v>
+        <v>0.3650451600551605</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.0009999335743486881</v>
+        <v>0.2011033296585083</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.1014553904533386</v>
+        <v>0.3281565010547638</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.007822055369615555</v>
+        <v>0.1950522214174271</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.006724279373884201</v>
+        <v>0.04939974844455719</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.01549456082284451</v>
+        <v>0.0548018179833889</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.03213581815361977</v>
+        <v>0.2223034799098969</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.02595101669430733</v>
+        <v>0.2738100290298462</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0326678566634655</v>
+        <v>0.1616463959217072</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.01533972565084696</v>
+        <v>0.3035854399204254</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.03116747364401817</v>
+        <v>0.1390139907598495</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.05095495656132698</v>
+        <v>0.008994419127702713</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.0103658102452755</v>
+        <v>0.5663718581199646</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.00783521868288517</v>
+        <v>0.1183618158102036</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.06819848716259003</v>
+        <v>0.343718558549881</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.01711451448500156</v>
+        <v>0.1898131221532822</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.005918943788856268</v>
+        <v>0.06474490463733673</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.05663949623703957</v>
+        <v>0.224742203950882</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.03010357916355133</v>
+        <v>0.04442061483860016</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.1246452406048775</v>
+        <v>0.1956298500299454</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.06815968453884125</v>
+        <v>0.3469268977642059</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.0548880398273468</v>
+        <v>0.2706073224544525</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.02755856141448021</v>
+        <v>0.2247915267944336</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.04189952090382576</v>
+        <v>0.3968444466590881</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.04082900285720825</v>
+        <v>0.1657559424638748</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.02870595268905163</v>
+        <v>0.110916867852211</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.05064092576503754</v>
+        <v>0.02144358493387699</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.01873825490474701</v>
+        <v>0.06638018786907196</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.03050878085196018</v>
+        <v>0.01827371120452881</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.06668964773416519</v>
+        <v>0.1312337219715118</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.03371713683009148</v>
+        <v>0.2874685823917389</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.04780948907136917</v>
+        <v>0.4784810245037079</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.04723265767097473</v>
+        <v>0.2083879858255386</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.02872282639145851</v>
+        <v>0.4881473183631897</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.04892439767718315</v>
+        <v>0.001839149743318558</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.03042634762823582</v>
+        <v>0.3413088023662567</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.03604624047875404</v>
+        <v>0.1096019446849823</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.0917457714676857</v>
+        <v>0.00912654772400856</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.04800546541810036</v>
+        <v>0.4283450245857239</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.06249867379665375</v>
+        <v>0.1533181220293045</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.01929697766900063</v>
+        <v>0.5285540223121643</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.01017381995916367</v>
+        <v>0.04931790381669998</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.003120305016636848</v>
+        <v>0.2903827130794525</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.01193712092936039</v>
+        <v>0.1455889791250229</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.01154078915715218</v>
+        <v>0.08435500413179398</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.01341506373137236</v>
+        <v>0.2966054379940033</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.05556259304285049</v>
+        <v>0.1367595791816711</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.02254779636859894</v>
+        <v>0.3497430682182312</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.07310013473033905</v>
+        <v>0.2712946236133575</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.09546840190887451</v>
+        <v>0.5463405251502991</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.03560688346624374</v>
+        <v>0.07076166570186615</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.04023995250463486</v>
+        <v>0.3553842902183533</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.02051627635955811</v>
+        <v>0.06670668721199036</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.006019596010446548</v>
+        <v>0.1896360069513321</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.01909334398806095</v>
+        <v>0.2109883427619934</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.01036164537072182</v>
+        <v>0.2553529143333435</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.1199356913566589</v>
+        <v>0.3368143439292908</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.04332491010427475</v>
+        <v>0.01279488019645214</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.05170099064707756</v>
+        <v>0.5530776977539062</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.03192244097590446</v>
+        <v>0.2380808144807816</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.01145826652646065</v>
+        <v>0.1847616285085678</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.02648419886827469</v>
+        <v>0.1495171636343002</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.029960747808218</v>
+        <v>0.296306699514389</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0186042208224535</v>
+        <v>0.1624579429626465</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.0413375198841095</v>
+        <v>0.4089345335960388</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.03522997722029686</v>
+        <v>0.1194399893283844</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.03991797938942909</v>
+        <v>0.164684846997261</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.08708821982145309</v>
+        <v>0.3029879629611969</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.05439138412475586</v>
+        <v>0.3115698993206024</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.00865553691983223</v>
+        <v>0.4478906095027924</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.0006585549563169479</v>
+        <v>1.162730574607849</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.01632841676473618</v>
+        <v>0.06132059544324875</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.02450736612081528</v>
+        <v>0.09003313630819321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.629334688186646</v>
+        <v>0.8515565395355225</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7607589960098267</v>
+        <v>5.957437515258789</v>
       </c>
       <c r="C13" t="n">
-        <v>2.466297626495361</v>
+        <v>0.382714569568634</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5214858055114746</v>
+        <v>2.916254281997681</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3248147070407867</v>
+        <v>0.6782180070877075</v>
       </c>
       <c r="F13" t="n">
-        <v>0.274509608745575</v>
+        <v>4.456031799316406</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4653216004371643</v>
+        <v>0.244693398475647</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3915474712848663</v>
+        <v>2.193047046661377</v>
       </c>
       <c r="I13" t="n">
-        <v>1.004915952682495</v>
+        <v>0.02398763224482536</v>
       </c>
       <c r="J13" t="n">
-        <v>2.660131454467773</v>
+        <v>1.437668085098267</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3967931270599365</v>
+        <v>5.073957920074463</v>
       </c>
       <c r="L13" t="n">
-        <v>2.950917959213257</v>
+        <v>0.203101858496666</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0005895122885704041</v>
+        <v>2.389401435852051</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6876948475837708</v>
+        <v>0.2606657147407532</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2948320806026459</v>
+        <v>4.208368301391602</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5736899971961975</v>
+        <v>0.3931884169578552</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4620769023895264</v>
+        <v>0.5137224197387695</v>
       </c>
       <c r="R13" t="n">
-        <v>1.246353387832642</v>
+        <v>0.1630980670452118</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1087047308683395</v>
+        <v>0.1264360547065735</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3073591589927673</v>
+        <v>0.301021546125412</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2073307931423187</v>
+        <v>0.4006927013397217</v>
       </c>
       <c r="V13" t="n">
-        <v>0.06195476278662682</v>
+        <v>0.5920504927635193</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2481779456138611</v>
+        <v>0.8337922096252441</v>
       </c>
       <c r="X13" t="n">
-        <v>0.08230705559253693</v>
+        <v>0.5535549521446228</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1949720680713654</v>
+        <v>0.5419770479202271</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.3120318949222565</v>
+        <v>0.722933828830719</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1326339244842529</v>
+        <v>0.9091038107872009</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09549123048782349</v>
+        <v>0.00706171989440918</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2937849462032318</v>
+        <v>0.3024779558181763</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.03029058873653412</v>
+        <v>0.1551077663898468</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.03012807667255402</v>
+        <v>0.3758100867271423</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.09040383994579315</v>
+        <v>0.2329671084880829</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.04794975370168686</v>
+        <v>0.03036792203783989</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0452275387942791</v>
+        <v>0.3312402963638306</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.5646956562995911</v>
+        <v>0.36224165558815</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.3243614733219147</v>
+        <v>0.263164609670639</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.6614559888839722</v>
+        <v>0.3980762362480164</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.3626890778541565</v>
+        <v>0.8190439343452454</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.2354559153318405</v>
+        <v>0.1113075315952301</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.4474227428436279</v>
+        <v>0.3049560189247131</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.1051419973373413</v>
+        <v>0.7672514915466309</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1912934929132462</v>
+        <v>0.8634297847747803</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.02717122063040733</v>
+        <v>0.1172007992863655</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.1776350736618042</v>
+        <v>0.2315041720867157</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.1275768578052521</v>
+        <v>0.6311396360397339</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.192132115364075</v>
+        <v>0.336045891046524</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.2678146958351135</v>
+        <v>3.486191987991333</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.299111247062683</v>
+        <v>0.138846680521965</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.4899262189865112</v>
+        <v>1.010528683662415</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.6532620191574097</v>
+        <v>0.05221991240978241</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.4668617248535156</v>
+        <v>2.433576345443726</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.2221078425645828</v>
+        <v>0.6497651338577271</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.1761401295661926</v>
+        <v>1.082223296165466</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.2153397798538208</v>
+        <v>1.340724945068359</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.3629151880741119</v>
+        <v>0.6906337141990662</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.2037524282932281</v>
+        <v>0.9816325902938843</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.6471138000488281</v>
+        <v>0.9820474982261658</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.04093638062477112</v>
+        <v>0.7397320866584778</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.7328271269798279</v>
+        <v>1.255112171173096</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.3745439052581787</v>
+        <v>1.006279945373535</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.423020213842392</v>
+        <v>0.6263569593429565</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.6003187894821167</v>
+        <v>0.5703977346420288</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.1588994264602661</v>
+        <v>0.03375008702278137</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.198998361825943</v>
+        <v>0.2004711478948593</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.3101097047328949</v>
+        <v>0.6412556171417236</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.4312655627727509</v>
+        <v>0.01459035277366638</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.117021344602108</v>
+        <v>0.3945397436618805</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.8197430968284607</v>
+        <v>0.2662680745124817</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.5901710987091064</v>
+        <v>0.1126145422458649</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.3569464981555939</v>
+        <v>0.3527207970619202</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.459665060043335</v>
+        <v>0.4219496250152588</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.05557465180754662</v>
+        <v>0.1176548600196838</v>
       </c>
       <c r="BU13" t="n">
-        <v>1.207856774330139</v>
+        <v>0.2043114006519318</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0697740763425827</v>
+        <v>1.825523018836975</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.5163363814353943</v>
+        <v>0.5894112586975098</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.2506275773048401</v>
+        <v>0.4978958964347839</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.08097034692764282</v>
+        <v>0.4205718040466309</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.2462335824966431</v>
+        <v>1.153667569160461</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.2370672971010208</v>
+        <v>0.04220028221607208</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.08279365301132202</v>
+        <v>0.4481426477432251</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.3617652058601379</v>
+        <v>0.8590883612632751</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.5696493983268738</v>
+        <v>0.1328786313533783</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.6683740615844727</v>
+        <v>0.9392749071121216</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.5022483468055725</v>
+        <v>0.4817326068878174</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.04920229315757751</v>
+        <v>0.4976716935634613</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.04344869777560234</v>
+        <v>0.04162615910172462</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.04125751927495003</v>
+        <v>0.7068886756896973</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.04318156465888023</v>
+        <v>0.3864396810531616</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.06312137097120285</v>
+        <v>0.4536856412887573</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.160377249121666</v>
+        <v>0.5932176113128662</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.143957182765007</v>
+        <v>0.6701197028160095</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.07314784079790115</v>
+        <v>0.1850819885730743</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.08475030213594437</v>
+        <v>0.03198786452412605</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.2220494747161865</v>
+        <v>0.2275202870368958</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.4160595834255219</v>
+        <v>0.2344545125961304</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.2945117950439453</v>
+        <v>0.2767913341522217</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.01913383975625038</v>
+        <v>0.9099722504615784</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.4324636459350586</v>
+        <v>0.710018515586853</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.04552572220563889</v>
+        <v>0.0184362381696701</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.5128324627876282</v>
+        <v>0.04910299181938171</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.5757256746292114</v>
+        <v>0.848389744758606</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.5320509672164917</v>
+        <v>0.4650988876819611</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.06338649243116379</v>
+        <v>0.6978020668029785</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.2661188244819641</v>
+        <v>0.1398966312408447</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.09416065365076065</v>
+        <v>0.8760873675346375</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.006590572185814381</v>
+        <v>0.3451689481735229</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.008034132421016693</v>
+        <v>0.6388010382652283</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.1115979999303818</v>
+        <v>0.3975589275360107</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.1006843820214272</v>
+        <v>0.2017704248428345</v>
       </c>
       <c r="DF13" t="n">
-        <v>1.609399437904358</v>
+        <v>0.6906677484512329</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.9215394854545593</v>
+        <v>0.1119575574994087</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.1076071262359619</v>
+        <v>2.26693058013916</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.2172891497612</v>
+        <v>0.6471169590950012</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.4144946336746216</v>
+        <v>0.5850987434387207</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.3185888528823853</v>
+        <v>0.4956351220607758</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.4544426202774048</v>
+        <v>1.301858186721802</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.1315342634916306</v>
+        <v>0.5578177571296692</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.06460734456777573</v>
+        <v>0.0717909187078476</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.7636963129043579</v>
+        <v>0.2930676341056824</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.1275977194309235</v>
+        <v>0.06640100479125977</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.04267256706953049</v>
+        <v>0.05175259709358215</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.3985312879085541</v>
+        <v>0.04063555225729942</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.3424941003322601</v>
+        <v>0.3643921613693237</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.1884726285934448</v>
+        <v>0.6852759718894958</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.07436163723468781</v>
+        <v>0.06277363002300262</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.3187892436981201</v>
+        <v>0.7204563021659851</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.2967086732387543</v>
+        <v>0.1653701812028885</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.1157665476202965</v>
+        <v>0.07029958814382553</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.1089000627398491</v>
+        <v>0.5114501714706421</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.3233639895915985</v>
+        <v>0.1504464000463486</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.1432768404483795</v>
+        <v>0.07242026180028915</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.07498326897621155</v>
+        <v>0.4878382086753845</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.212199330329895</v>
+        <v>0.1346953809261322</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.2679829299449921</v>
+        <v>0.1882276833057404</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.08637772500514984</v>
+        <v>0.5914680957794189</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.9252163171768188</v>
+        <v>0.2774895429611206</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.3295266032218933</v>
+        <v>0.8786633014678955</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.5491295456886292</v>
+        <v>0.3459628820419312</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.136108785867691</v>
+        <v>0.03346467018127441</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.1349352598190308</v>
+        <v>0.394670158624649</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.5049394965171814</v>
+        <v>0.4420825839042664</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.1021615564823151</v>
+        <v>0.4089283347129822</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.527138352394104</v>
+        <v>0.2715941667556763</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.1215904876589775</v>
+        <v>0.2174731492996216</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.2181384861469269</v>
+        <v>0.06519272923469543</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.2246930599212646</v>
+        <v>0.6028991341590881</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.06517525017261505</v>
+        <v>0.5401257276535034</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.04592525959014893</v>
+        <v>0.5698126554489136</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.5730358362197876</v>
+        <v>0.7541537284851074</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.3264486193656921</v>
+        <v>0.4766553342342377</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.3052524030208588</v>
+        <v>0.3792552351951599</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.04731667786836624</v>
+        <v>1.31359589099884</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.1061433702707291</v>
+        <v>0.3189603090286255</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.5516878366470337</v>
+        <v>0.03208588063716888</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.5309551358222961</v>
+        <v>0.7750863432884216</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.5397130250930786</v>
+        <v>0.3417181968688965</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0302785150706768</v>
+        <v>0.5880992412567139</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.19820237159729</v>
+        <v>0.2009845823049545</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.09074298292398453</v>
+        <v>0.6279723048210144</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.03272709995508194</v>
+        <v>0.6003824472427368</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.1819542348384857</v>
+        <v>0.466724693775177</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.1830522567033768</v>
+        <v>0.6011257767677307</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.3415211141109467</v>
+        <v>0.1589974761009216</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.1803284585475922</v>
+        <v>0.4860472679138184</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.6942148208618164</v>
+        <v>0.2140242457389832</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.4773923456668854</v>
+        <v>1.110485553741455</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.01474323216825724</v>
+        <v>0.5998097062110901</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.3721280694007874</v>
+        <v>0.2587460279464722</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.1568666100502014</v>
+        <v>0.165667712688446</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.006481340620666742</v>
+        <v>0.2989199161529541</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.05117223784327507</v>
+        <v>0.38632532954216</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.2859421670436859</v>
+        <v>0.387887716293335</v>
       </c>
       <c r="FQ13" t="n">
-        <v>1.429748058319092</v>
+        <v>0.9542347192764282</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.1207767426967621</v>
+        <v>0.6659740805625916</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.2636563181877136</v>
+        <v>0.4820132553577423</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.3685481250286102</v>
+        <v>0.4298547208309174</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.2332955002784729</v>
+        <v>0.09277421236038208</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.1753000468015671</v>
+        <v>0.4153920114040375</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.2687428891658783</v>
+        <v>0.3093442320823669</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.07277940958738327</v>
+        <v>0.6105672717094421</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.2310117781162262</v>
+        <v>0.7163317203521729</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.4899115860462189</v>
+        <v>0.1777236014604568</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.2222386449575424</v>
+        <v>0.6444494128227234</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.1538874804973602</v>
+        <v>0.2472275197505951</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.3561416268348694</v>
+        <v>0.9969771504402161</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.1650338619947433</v>
+        <v>0.2884360551834106</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.1631716191768646</v>
+        <v>2.221816301345825</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.02082356065511703</v>
+        <v>0.009759999811649323</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.2359700798988342</v>
+        <v>0.5213454961776733</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.011764045804739</v>
+        <v>0.002030198462307453</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01395310368388891</v>
+        <v>0.1100059747695923</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02108282223343849</v>
+        <v>0.003481960855424404</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003381310496479273</v>
+        <v>0.1353030651807785</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0199933722615242</v>
+        <v>0.0438297763466835</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006343742832541466</v>
+        <v>0.02525205537676811</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005162561312317848</v>
+        <v>0.03449894487857819</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008532219799235463</v>
+        <v>0.005726469680666924</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005558750592172146</v>
+        <v>0.02082560397684574</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01285761594772339</v>
+        <v>0.02061675861477852</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006746492348611355</v>
+        <v>0.1032796427607536</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02801728062331676</v>
+        <v>0.01330838166177273</v>
       </c>
       <c r="M14" t="n">
-        <v>0.000392522633774206</v>
+        <v>0.1038581132888794</v>
       </c>
       <c r="N14" t="n">
-        <v>0.007117156870663166</v>
+        <v>0.03319040685892105</v>
       </c>
       <c r="O14" t="n">
-        <v>0.007625353988260031</v>
+        <v>0.0173824205994606</v>
       </c>
       <c r="P14" t="n">
-        <v>0.008152486756443977</v>
+        <v>0.02462871745228767</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.001552467234432697</v>
+        <v>0.01029525324702263</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01203146297484636</v>
+        <v>0.02352836728096008</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0004123756662011147</v>
+        <v>0.01493002939969301</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0003674121107906103</v>
+        <v>0.01473039016127586</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0006704736733809114</v>
+        <v>0.01190476585179567</v>
       </c>
       <c r="V14" t="n">
-        <v>0.00207552732899785</v>
+        <v>0.0262987744063139</v>
       </c>
       <c r="W14" t="n">
-        <v>0.002114121802151203</v>
+        <v>0.01116537488996983</v>
       </c>
       <c r="X14" t="n">
-        <v>0.003078275360167027</v>
+        <v>0.004734035581350327</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.00269570155069232</v>
+        <v>0.005320116877555847</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.004233179613947868</v>
+        <v>0.01354661397635937</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0042172996327281</v>
+        <v>0.0105626629665494</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.001349602360278368</v>
+        <v>0.004591736011207104</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.004198712296783924</v>
+        <v>0.008344339206814766</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.001621909206733108</v>
+        <v>0.01266609225422144</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.002713291440159082</v>
+        <v>0.01933865435421467</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.001713099190965295</v>
+        <v>0.007527054287493229</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.001840896322391927</v>
+        <v>0.002316536149010062</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.00133682182058692</v>
+        <v>0.00794095266610384</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.008960969746112823</v>
+        <v>0.001134730409830809</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.00349503243342042</v>
+        <v>0.02027194015681744</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.007172295823693275</v>
+        <v>0.0002319337800145149</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.008101576939225197</v>
+        <v>0.02429093234241009</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.002283845562487841</v>
+        <v>0.006086595356464386</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.006768870633095503</v>
+        <v>0.002362600993365049</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0007723980234004557</v>
+        <v>0.006519549526274204</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.001115492428652942</v>
+        <v>0.007853077724575996</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0003484052140265703</v>
+        <v>0.002749991603195667</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.007079754490405321</v>
+        <v>0.003165732137858868</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.00419297069311142</v>
+        <v>0.01127747260034084</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.009811077266931534</v>
+        <v>0.01692830957472324</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.009191320277750492</v>
+        <v>0.05132901668548584</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.01343735959380865</v>
+        <v>0.009232917800545692</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.002834433224052191</v>
+        <v>0.07637393474578857</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.006619677878916264</v>
+        <v>0.05138205364346504</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.01417747605592012</v>
+        <v>0.03350881487131119</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.002975643845275044</v>
+        <v>0.007462549023330212</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.008890382945537567</v>
+        <v>0.003438983112573624</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.008595851249992847</v>
+        <v>0.02519845776259899</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.0006247214041650295</v>
+        <v>0.007953298278152943</v>
       </c>
       <c r="BD14" t="n">
-        <v>3.494962584227324e-06</v>
+        <v>0.02914704941213131</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.004582996945828199</v>
+        <v>0.008914772421121597</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.0001156343496404588</v>
+        <v>0.03425395861268044</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.01207606866955757</v>
+        <v>0.0280443225055933</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.007837310433387756</v>
+        <v>0.02262848615646362</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.00699568958953023</v>
+        <v>0.01579943671822548</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.0008696309523656964</v>
+        <v>0.0169753935188055</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.005495503079146147</v>
+        <v>0.001213987590745091</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.00203015748411417</v>
+        <v>0.007464312016963959</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.003393729915842414</v>
+        <v>0.001342191593721509</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.001393985585309565</v>
+        <v>0.002703696256503463</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.004435230046510696</v>
+        <v>0.006798337679356337</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.004736683797091246</v>
+        <v>0.009157581254839897</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.001772813033312559</v>
+        <v>0.006681264843791723</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.002846762537956238</v>
+        <v>0.008690927177667618</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.007824285887181759</v>
+        <v>0.02204956859350204</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.00115784362424165</v>
+        <v>0.008034886792302132</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.01155249774456024</v>
+        <v>0.02541441842913628</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.006964853033423424</v>
+        <v>0.02977613173425198</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.008412130177021027</v>
+        <v>0.01212474144995213</v>
       </c>
       <c r="BX14" t="n">
-        <v>1.78612899617292e-05</v>
+        <v>0.04062278568744659</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.007116122171282768</v>
+        <v>0.01788683049380779</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.0045033716596663</v>
+        <v>0.009056512266397476</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.001746444613672793</v>
+        <v>0.003994356840848923</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.002991018583998084</v>
+        <v>0.001381514826789498</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.004491569940000772</v>
+        <v>0.01943506672978401</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.003439821768552065</v>
+        <v>0.0002416695933789015</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.00609716959297657</v>
+        <v>0.01237535290420055</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.003696618136018515</v>
+        <v>0.01141024474054575</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.00175085267983377</v>
+        <v>0.02766749449074268</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.002017853781580925</v>
+        <v>0.00774636073037982</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.003175177844241261</v>
+        <v>0.01038448326289654</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.0002318946062587202</v>
+        <v>1.731107477098703e-05</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.001015090383589268</v>
+        <v>0.003178224666044116</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.0005941935814917088</v>
+        <v>0.01063029933720827</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.006093763280659914</v>
+        <v>0.0208157766610384</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.00782331358641386</v>
+        <v>0.01457643415778875</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.003109833225607872</v>
+        <v>0.00416877493262291</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.003767286194488406</v>
+        <v>0.02764153108000755</v>
       </c>
       <c r="CQ14" t="n">
-        <v>6.756163202226162e-05</v>
+        <v>0.01850565709173679</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.005938241723924875</v>
+        <v>0.003415492130443454</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.001520132413133979</v>
+        <v>0.02874134108424187</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.001361513510346413</v>
+        <v>0.01439549494534731</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.002188239945098758</v>
+        <v>0.02275760844349861</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.00339485751464963</v>
+        <v>0.001010644831694663</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.006631394848227501</v>
+        <v>0.01326397527009249</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.004793928004801273</v>
+        <v>0.01640773564577103</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.0006376121891662478</v>
+        <v>0.02725416235625744</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.006730294786393642</v>
+        <v>0.008686527609825134</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.004265306051820517</v>
+        <v>0.01221188437193632</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.0005960314301773906</v>
+        <v>0.0008054429199546576</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.0009560897597111762</v>
+        <v>0.005915905814617872</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.0001082106464309618</v>
+        <v>0.006004843395203352</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.002387659624218941</v>
+        <v>0.009341499768197536</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.01454762276262045</v>
+        <v>0.02166286483407021</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.004610956646502018</v>
+        <v>0.02906651236116886</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.003634350607171655</v>
+        <v>0.03646950051188469</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.0006990581750869751</v>
+        <v>0.002537489170208573</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.001476836390793324</v>
+        <v>0.005746510811150074</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.002871573902666569</v>
+        <v>0.03163975477218628</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.002839529886841774</v>
+        <v>0.01585056446492672</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.0004571860481519252</v>
+        <v>0.0009383573196828365</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.001676721498370171</v>
+        <v>0.006020921748131514</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.005306430626660585</v>
+        <v>0.002245511393994093</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.00175683933775872</v>
+        <v>0.009350565262138844</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.003831919282674789</v>
+        <v>0.001047934987582266</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.001053688232786953</v>
+        <v>0.02416382730007172</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.001319463597610593</v>
+        <v>0.005548644345253706</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.001193538773804903</v>
+        <v>0.01115523651242256</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.009906623512506485</v>
+        <v>0.002063531661406159</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.004327446222305298</v>
+        <v>0.01048941165208817</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.001787322689779103</v>
+        <v>0.001823052065446973</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.000687959254719317</v>
+        <v>0.005860895849764347</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.001468275673687458</v>
+        <v>0.01127951312810183</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.001515633193776011</v>
+        <v>0.01860417239367962</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.003788166679441929</v>
+        <v>0.007940707728266716</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.003281938843429089</v>
+        <v>0.002128223888576031</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.004796473775058985</v>
+        <v>0.01860787905752659</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.001053274143487215</v>
+        <v>0.01356907747685909</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.0009441078873351216</v>
+        <v>0.007173112127929926</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.005159120075404644</v>
+        <v>0.01376512832939625</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.001692928839474916</v>
+        <v>0.001867660321295261</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.005846308544278145</v>
+        <v>0.02390212193131447</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.003856250317767262</v>
+        <v>0.01255633402615786</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.001746497116982937</v>
+        <v>0.0006256558699533343</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.0102342339232564</v>
+        <v>0.01152257435023785</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.003313015680760145</v>
+        <v>0.006129790563136339</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.00194629339966923</v>
+        <v>0.003883784171193838</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.005643511191010475</v>
+        <v>0.005171552300453186</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.002991792280226946</v>
+        <v>0.007251205388456583</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.007016899064183235</v>
+        <v>0.01381120830774307</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.004907572641968727</v>
+        <v>0.01154819875955582</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.001242258585989475</v>
+        <v>0.02303285524249077</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.003452044911682606</v>
+        <v>0.01432986371219158</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.001575341913849115</v>
+        <v>0.02492158301174641</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.0004777286085300148</v>
+        <v>0.006493133027106524</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.007436865940690041</v>
+        <v>0.01307312492281199</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.001241637393832207</v>
+        <v>0.006508077960461378</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.00368294445797801</v>
+        <v>0.001458185724914074</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.006263315211981535</v>
+        <v>0.01220082305371761</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.004582589957863092</v>
+        <v>0.01230878848582506</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.001653986517339945</v>
+        <v>0.02910514362156391</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.004413535352796316</v>
+        <v>0.001155398553237319</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.00205007242038846</v>
+        <v>0.007348643615841866</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.0004263899754732847</v>
+        <v>0.003597251605242491</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.002187426201999187</v>
+        <v>0.006317466963082552</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.001269890111871064</v>
+        <v>0.009515284560620785</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.001516722026281059</v>
+        <v>0.004392152652144432</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.0002318167826160789</v>
+        <v>0.01826547458767891</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.003568844404071569</v>
+        <v>0.001806739601306617</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.005375455133616924</v>
+        <v>0.02173664048314095</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.0005374759202823043</v>
+        <v>0.01776848547160625</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.004048033617436886</v>
+        <v>6.659422069787979e-06</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.0005729257245548069</v>
+        <v>0.01290560234338045</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.004326435271650553</v>
+        <v>0.002208945574238896</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.0004983379039913416</v>
+        <v>0.005839994177222252</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.006267392542213202</v>
+        <v>0.01796247065067291</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.01958867162466049</v>
+        <v>0.03402476385235786</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.00174351769965142</v>
+        <v>0.01419102028012276</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.004815411288291216</v>
+        <v>0.02487180940806866</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.001869685598649085</v>
+        <v>0.03499484807252884</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.002445069840177894</v>
+        <v>0.02010465785861015</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.007353152614086866</v>
+        <v>0.00416966388002038</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.009802926331758499</v>
+        <v>0.01395518705248833</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.007629393599927425</v>
+        <v>0.007110499311238527</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.003170810407027602</v>
+        <v>0.003129017073661089</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.006353314965963364</v>
+        <v>0.008186990395188332</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.0006795723456889391</v>
+        <v>0.006755432579666376</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.001331476145423949</v>
+        <v>0.00248339818790555</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.003416005056351423</v>
+        <v>0.04725106060504913</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.00135986995883286</v>
+        <v>0.002545625437051058</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.001787888933904469</v>
+        <v>0.05060379952192307</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.0005152486264705658</v>
+        <v>0.002869982738047838</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.002650015521794558</v>
+        <v>0.003136326791718602</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>0.001512573915533721</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.009818813763558865</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.001471070805564523</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.004978022538125515</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.003272096859291196</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.008165049366652966</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0003354864893481135</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.003621379612013698</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.001211999915540218</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.001875880407169461</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.008050017990171909</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0008939615800045431</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.002426748629659414</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.0008375872857868671</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.00618719682097435</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.0001619234681129456</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.0003195884055458009</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.001043901545926929</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.0005440739914774895</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.0006992191774770617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0002502719289623201</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.002271959790959954</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>0.0019499771296978</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.001394628081470728</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.001251553068868816</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.001677219523116946</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>0.0007613071938976645</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>0.001148883835412562</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>5.588767817243934e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>0.0001931602746481076</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>0.001074035535566509</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>0.001629144884645939</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>0.0005939282709732652</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>9.759666863828897e-05</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>0.0003304052515886724</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>0.001403283444233239</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>0.001199167454615235</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.001479560392908752</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>0.0008589122444391251</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>0.0003866901388391852</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>0.0007260316051542759</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>0.001429951516911387</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>9.29835659917444e-05</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>0.0009654038003645837</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>0.001197680132463574</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>0.000126286904560402</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.005294014234095812</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>0.001182544627226889</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>0.0009898605057969689</v>
       </c>
       <c r="AX15" t="n">
-        <v>0</v>
+        <v>0.0007212539203464985</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>0.004004980903118849</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>0.001442227512598038</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>0.001209041103720665</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>0.001973041798919439</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>0.001540734083391726</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.0005578628042712808</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>0.001433969009667635</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>0.0001047610276145861</v>
       </c>
       <c r="BG15" t="n">
-        <v>0</v>
+        <v>0.003205040702596307</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>0.00178367889020592</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>0.001590645406395197</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>0.001461880514398217</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>0.001192134455777705</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>0.0001335022388957441</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.00254432437941432</v>
       </c>
       <c r="BN15" t="n">
-        <v>0</v>
+        <v>0.0008805346442386508</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>0.001012629014439881</v>
       </c>
       <c r="BP15" t="n">
-        <v>0</v>
+        <v>0.0008809937280602753</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>0.001288204919546843</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>0.0007168205920606852</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>0.0004090607399120927</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>0.0004669141490012407</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>0.0008373711025342345</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.004004277288913727</v>
       </c>
       <c r="BW15" t="n">
-        <v>0</v>
+        <v>0.001553252339363098</v>
       </c>
       <c r="BX15" t="n">
-        <v>0</v>
+        <v>0.0009053901303559542</v>
       </c>
       <c r="BY15" t="n">
-        <v>0</v>
+        <v>0.0003500333405099809</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>0.0009567183442413807</v>
       </c>
       <c r="CA15" t="n">
-        <v>0</v>
+        <v>0.0002839361550286412</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>0.0004446581879165024</v>
       </c>
       <c r="CC15" t="n">
-        <v>0</v>
+        <v>0.00160095957107842</v>
       </c>
       <c r="CD15" t="n">
-        <v>0</v>
+        <v>0.000588041846640408</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>0.0009255282930098474</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>0.0006962819024920464</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>0.001023802789859474</v>
       </c>
       <c r="CH15" t="n">
-        <v>0</v>
+        <v>0.0001845958031481132</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>0.001436279155313969</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>0.0008243893971666694</v>
       </c>
       <c r="CK15" t="n">
-        <v>0</v>
+        <v>0.0007946955738589168</v>
       </c>
       <c r="CL15" t="n">
-        <v>0</v>
+        <v>0.001040180097334087</v>
       </c>
       <c r="CM15" t="n">
-        <v>0</v>
+        <v>0.0005655803834088147</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>0.00252455729059875</v>
       </c>
       <c r="CO15" t="n">
-        <v>0</v>
+        <v>0.0006917231366969645</v>
       </c>
       <c r="CP15" t="n">
-        <v>0</v>
+        <v>0.001731883850879967</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0</v>
+        <v>4.304580215830356e-05</v>
       </c>
       <c r="CR15" t="n">
-        <v>0</v>
+        <v>0.0002830695011653006</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>0.002448670333251357</v>
       </c>
       <c r="CT15" t="n">
-        <v>0</v>
+        <v>0.002226645825430751</v>
       </c>
       <c r="CU15" t="n">
-        <v>0</v>
+        <v>0.0001946849224623293</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>0.0003118262393400073</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>0.001180523773655295</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>0.0006030159420333803</v>
       </c>
       <c r="CY15" t="n">
-        <v>0</v>
+        <v>0.001239941106177866</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0</v>
+        <v>5.756512837251648e-05</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
+        <v>0.00195880071260035</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>0.0007135416963137686</v>
       </c>
       <c r="DC15" t="n">
-        <v>0</v>
+        <v>0.001160160638391972</v>
       </c>
       <c r="DD15" t="n">
-        <v>0</v>
+        <v>0.0005313438014127314</v>
       </c>
       <c r="DE15" t="n">
-        <v>0</v>
+        <v>1.607689773663878e-05</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>0.001368124736472964</v>
       </c>
       <c r="DG15" t="n">
-        <v>0</v>
+        <v>0.001320475712418556</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>0.004170896485447884</v>
       </c>
       <c r="DI15" t="n">
-        <v>0</v>
+        <v>0.004493166226893663</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0</v>
+        <v>0.002639617770910263</v>
       </c>
       <c r="DK15" t="n">
-        <v>0</v>
+        <v>0.001514508854597807</v>
       </c>
       <c r="DL15" t="n">
-        <v>0</v>
+        <v>0.003361535025760531</v>
       </c>
       <c r="DM15" t="n">
-        <v>0</v>
+        <v>0.002272812649607658</v>
       </c>
       <c r="DN15" t="n">
-        <v>0</v>
+        <v>0.0001898249902296811</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>0.0005416242638602853</v>
       </c>
       <c r="DP15" t="n">
-        <v>0</v>
+        <v>0.0004104478575754911</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0</v>
+        <v>0.0001920699432957917</v>
       </c>
       <c r="DR15" t="n">
-        <v>0</v>
+        <v>0.0008824722608551383</v>
       </c>
       <c r="DS15" t="n">
-        <v>0</v>
+        <v>0.0009539697202853858</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>0.00127281725872308</v>
       </c>
       <c r="DU15" t="n">
-        <v>0</v>
+        <v>0.00120560301002115</v>
       </c>
       <c r="DV15" t="n">
-        <v>0</v>
+        <v>0.001594192581251264</v>
       </c>
       <c r="DW15" t="n">
-        <v>0</v>
+        <v>0.0001281968434341252</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>0.0006558428285643458</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>0.0001167900918517262</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0</v>
+        <v>0.0002069654874503613</v>
       </c>
       <c r="EA15" t="n">
-        <v>0</v>
+        <v>8.449226152151823e-05</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>0.0002406883286312222</v>
       </c>
       <c r="EC15" t="n">
-        <v>0</v>
+        <v>0.0005881891120225191</v>
       </c>
       <c r="ED15" t="n">
-        <v>0</v>
+        <v>0.0008520839619450271</v>
       </c>
       <c r="EE15" t="n">
-        <v>0</v>
+        <v>0.0008954693330451846</v>
       </c>
       <c r="EF15" t="n">
-        <v>0</v>
+        <v>9.011017391458154e-05</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>0.0008966088062152267</v>
       </c>
       <c r="EH15" t="n">
-        <v>0</v>
+        <v>0.0008185705519281328</v>
       </c>
       <c r="EI15" t="n">
-        <v>0</v>
+        <v>9.89045511232689e-05</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0</v>
+        <v>2.286832022946328e-05</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>0.001853534486144781</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>0.000727218110114336</v>
       </c>
       <c r="EM15" t="n">
-        <v>0</v>
+        <v>0.0005600386648438871</v>
       </c>
       <c r="EN15" t="n">
-        <v>0</v>
+        <v>0.0005644353805109859</v>
       </c>
       <c r="EO15" t="n">
-        <v>0</v>
+        <v>0.0006448545027524233</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>0.0003079347079619765</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0</v>
+        <v>0.0001037330948747694</v>
       </c>
       <c r="ER15" t="n">
-        <v>0</v>
+        <v>0.001304382691159844</v>
       </c>
       <c r="ES15" t="n">
-        <v>0</v>
+        <v>0.001280852709896863</v>
       </c>
       <c r="ET15" t="n">
-        <v>0</v>
+        <v>0.002224184805527329</v>
       </c>
       <c r="EU15" t="n">
-        <v>0</v>
+        <v>0.0007048262050375342</v>
       </c>
       <c r="EV15" t="n">
-        <v>0</v>
+        <v>0.003527171909809113</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>0.0005903084529563785</v>
       </c>
       <c r="EX15" t="n">
-        <v>0</v>
+        <v>0.0001211513881571591</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>0.000723794219084084</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0</v>
+        <v>0.0004537226923275739</v>
       </c>
       <c r="FA15" t="n">
-        <v>0</v>
+        <v>0.001336832996457815</v>
       </c>
       <c r="FB15" t="n">
-        <v>0</v>
+        <v>0.0004099908983334899</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>0.00120110553689301</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>0.001151361502707005</v>
       </c>
       <c r="FE15" t="n">
-        <v>0</v>
+        <v>0.0007204325520433486</v>
       </c>
       <c r="FF15" t="n">
-        <v>0</v>
+        <v>0.001153351622633636</v>
       </c>
       <c r="FG15" t="n">
-        <v>0</v>
+        <v>0.0006818136898800731</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>0.001408741227351129</v>
       </c>
       <c r="FI15" t="n">
-        <v>0</v>
+        <v>0.0009913458488881588</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0</v>
+        <v>0.002056581899523735</v>
       </c>
       <c r="FK15" t="n">
-        <v>0</v>
+        <v>0.0007125341217033565</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>8.825632539810613e-05</v>
       </c>
       <c r="FM15" t="n">
-        <v>0</v>
+        <v>0.0007828362286090851</v>
       </c>
       <c r="FN15" t="n">
-        <v>0</v>
+        <v>0.001434574602171779</v>
       </c>
       <c r="FO15" t="n">
-        <v>0</v>
+        <v>0.0004393545677885413</v>
       </c>
       <c r="FP15" t="n">
-        <v>0</v>
+        <v>0.0006018226267769933</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>0.001729653216898441</v>
       </c>
       <c r="FR15" t="n">
-        <v>0</v>
+        <v>0.001197924604639411</v>
       </c>
       <c r="FS15" t="n">
-        <v>0</v>
+        <v>0.001482775318436325</v>
       </c>
       <c r="FT15" t="n">
-        <v>0</v>
+        <v>0.0003519703168421984</v>
       </c>
       <c r="FU15" t="n">
-        <v>0</v>
+        <v>0.0002612823154777288</v>
       </c>
       <c r="FV15" t="n">
-        <v>0</v>
+        <v>0.000675405259244144</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>0.0004498636990319937</v>
       </c>
       <c r="FX15" t="n">
-        <v>0</v>
+        <v>0.0003474969998933375</v>
       </c>
       <c r="FY15" t="n">
-        <v>0</v>
+        <v>0.001348640536889434</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.001244629034772515</v>
       </c>
       <c r="GA15" t="n">
-        <v>0</v>
+        <v>0.0006005652248859406</v>
       </c>
       <c r="GB15" t="n">
-        <v>0</v>
+        <v>0.001237601973116398</v>
       </c>
       <c r="GC15" t="n">
-        <v>0</v>
+        <v>0.003164137713611126</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>0.0008371652802452445</v>
       </c>
       <c r="GE15" t="n">
-        <v>0</v>
+        <v>0.005263815633952618</v>
       </c>
       <c r="GF15" t="n">
-        <v>0</v>
+        <v>0.0002433017798466608</v>
       </c>
       <c r="GG15" t="n">
+        <v>0.0003517476725392044</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG16" t="n">
         <v>0</v>
       </c>
     </row>
